--- a/static/data/작업일지_2024-12-01.xlsx
+++ b/static/data/작업일지_2024-12-01.xlsx
@@ -30,12 +30,18 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,12 +62,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:S349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,27 +522,27 @@
       <c r="S3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>성명</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t># 주간작업</t>
         </is>
@@ -572,53 +581,53 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>구간</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>층</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>형태</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>작업 단가별 분류</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>작업내용</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>작업명단</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1251,11 +1260,7 @@
       </c>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
+      <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
       <c r="H28" s="2" t="n"/>
@@ -1284,7 +1289,7 @@
       <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t># 연장작업</t>
+          <t>합계</t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1292,7 +1297,9 @@
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
+      <c r="K29" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L29" s="2" t="n"/>
       <c r="M29" s="2" t="n"/>
       <c r="N29" s="2" t="n"/>
@@ -1313,46 +1320,18 @@
       </c>
       <c r="C30" s="2" t="n"/>
       <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>구간</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>층</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>형태</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>작업 단가별 분류</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>작업내용</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>공종</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>작업 명단</t>
-        </is>
-      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
       <c r="M30" s="2" t="n"/>
       <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="n"/>
@@ -1372,14 +1351,46 @@
       </c>
       <c r="C31" s="2" t="n"/>
       <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
       <c r="M31" s="2" t="n"/>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
@@ -1713,17 +1724,17 @@
       <c r="S43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -1733,10 +1744,10 @@
       <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L44" s="2" t="n"/>
+      <c r="L44" s="3" t="n"/>
       <c r="M44" s="2" t="n"/>
       <c r="N44" s="2" t="n"/>
       <c r="O44" s="2" t="n"/>
@@ -1746,7 +1757,7 @@
       <c r="S44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t># 특이사항</t>
         </is>
@@ -1951,27 +1962,27 @@
       <c r="S53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>성명</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t># 주간작업</t>
         </is>
@@ -2010,53 +2021,53 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>구간</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>층</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>형태</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>작업 단가별 분류</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>작업내용</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
+      <c r="K55" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>작업명단</t>
         </is>
       </c>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2697,11 +2708,7 @@
       </c>
       <c r="C78" s="2" t="n"/>
       <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
+      <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
       <c r="G78" s="2" t="n"/>
       <c r="H78" s="2" t="n"/>
@@ -2730,7 +2737,7 @@
       <c r="D79" s="2" t="n"/>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t># 연장작업</t>
+          <t>합계</t>
         </is>
       </c>
       <c r="F79" s="2" t="n"/>
@@ -2738,7 +2745,9 @@
       <c r="H79" s="2" t="n"/>
       <c r="I79" s="2" t="n"/>
       <c r="J79" s="2" t="n"/>
-      <c r="K79" s="2" t="n"/>
+      <c r="K79" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="L79" s="2" t="n"/>
       <c r="M79" s="2" t="n"/>
       <c r="N79" s="2" t="n"/>
@@ -2759,46 +2768,18 @@
       </c>
       <c r="C80" s="2" t="n"/>
       <c r="D80" s="2" t="n"/>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>구간</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>층</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>형태</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>작업 단가별 분류</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>작업내용</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>공종</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>작업 명단</t>
-        </is>
-      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+      <c r="H80" s="2" t="n"/>
+      <c r="I80" s="2" t="n"/>
+      <c r="J80" s="2" t="n"/>
+      <c r="K80" s="2" t="n"/>
+      <c r="L80" s="2" t="n"/>
       <c r="M80" s="2" t="n"/>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="2" t="n"/>
@@ -2818,14 +2799,46 @@
       </c>
       <c r="C81" s="2" t="n"/>
       <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-      <c r="H81" s="2" t="n"/>
-      <c r="I81" s="2" t="n"/>
-      <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="n"/>
-      <c r="L81" s="2" t="n"/>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K81" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
       <c r="M81" s="2" t="n"/>
       <c r="N81" s="2" t="n"/>
       <c r="O81" s="2" t="n"/>
@@ -3159,17 +3172,17 @@
       <c r="S93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="n"/>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -3179,10 +3192,10 @@
       <c r="H94" s="2" t="n"/>
       <c r="I94" s="2" t="n"/>
       <c r="J94" s="2" t="n"/>
-      <c r="K94" s="2" t="n">
+      <c r="K94" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L94" s="2" t="n"/>
+      <c r="L94" s="3" t="n"/>
       <c r="M94" s="2" t="n"/>
       <c r="N94" s="2" t="n"/>
       <c r="O94" s="2" t="n"/>
@@ -3192,7 +3205,7 @@
       <c r="S94" s="2" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t># 특이사항</t>
         </is>
@@ -3397,27 +3410,27 @@
       <c r="S103" s="2" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" s="3" t="inlineStr">
         <is>
           <t>성명</t>
         </is>
       </c>
-      <c r="D104" s="2" t="inlineStr">
+      <c r="D104" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" s="3" t="inlineStr">
         <is>
           <t># 주간작업</t>
         </is>
@@ -3456,53 +3469,53 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" s="3" t="inlineStr">
         <is>
           <t>구간</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" s="3" t="inlineStr">
         <is>
           <t>층</t>
         </is>
       </c>
-      <c r="G105" s="2" t="inlineStr">
+      <c r="G105" s="3" t="inlineStr">
         <is>
           <t>형태</t>
         </is>
       </c>
-      <c r="H105" s="2" t="inlineStr">
+      <c r="H105" s="3" t="inlineStr">
         <is>
           <t>작업 단가별 분류</t>
         </is>
       </c>
-      <c r="I105" s="2" t="inlineStr">
+      <c r="I105" s="3" t="inlineStr">
         <is>
           <t>작업내용</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
+      <c r="J105" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="K105" s="2" t="inlineStr">
+      <c r="K105" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="L105" s="3" t="inlineStr">
         <is>
           <t>작업명단</t>
         </is>
       </c>
-      <c r="M105" s="2" t="inlineStr"/>
-      <c r="N105" s="2" t="inlineStr"/>
-      <c r="O105" s="2" t="inlineStr"/>
-      <c r="P105" s="2" t="inlineStr"/>
-      <c r="Q105" s="2" t="inlineStr"/>
-      <c r="R105" s="2" t="inlineStr"/>
-      <c r="S105" s="2" t="inlineStr"/>
+      <c r="M105" s="3" t="n"/>
+      <c r="N105" s="3" t="n"/>
+      <c r="O105" s="3" t="n"/>
+      <c r="P105" s="3" t="n"/>
+      <c r="Q105" s="3" t="n"/>
+      <c r="R105" s="3" t="n"/>
+      <c r="S105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -4167,11 +4180,7 @@
       </c>
       <c r="C128" s="2" t="n"/>
       <c r="D128" s="2" t="n"/>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
+      <c r="E128" s="2" t="n"/>
       <c r="F128" s="2" t="n"/>
       <c r="G128" s="2" t="n"/>
       <c r="H128" s="2" t="n"/>
@@ -4200,7 +4209,7 @@
       <c r="D129" s="2" t="n"/>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t># 연장작업</t>
+          <t>합계</t>
         </is>
       </c>
       <c r="F129" s="2" t="n"/>
@@ -4208,7 +4217,9 @@
       <c r="H129" s="2" t="n"/>
       <c r="I129" s="2" t="n"/>
       <c r="J129" s="2" t="n"/>
-      <c r="K129" s="2" t="n"/>
+      <c r="K129" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L129" s="2" t="n"/>
       <c r="M129" s="2" t="n"/>
       <c r="N129" s="2" t="n"/>
@@ -4229,46 +4240,18 @@
       </c>
       <c r="C130" s="2" t="n"/>
       <c r="D130" s="2" t="n"/>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>구간</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>층</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>형태</t>
-        </is>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>작업 단가별 분류</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>작업내용</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>공종</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>작업 명단</t>
-        </is>
-      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="n"/>
+      <c r="G130" s="2" t="n"/>
+      <c r="H130" s="2" t="n"/>
+      <c r="I130" s="2" t="n"/>
+      <c r="J130" s="2" t="n"/>
+      <c r="K130" s="2" t="n"/>
+      <c r="L130" s="2" t="n"/>
       <c r="M130" s="2" t="n"/>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="2" t="n"/>
@@ -4288,14 +4271,46 @@
       </c>
       <c r="C131" s="2" t="n"/>
       <c r="D131" s="2" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
-      <c r="G131" s="2" t="n"/>
-      <c r="H131" s="2" t="n"/>
-      <c r="I131" s="2" t="n"/>
-      <c r="J131" s="2" t="n"/>
-      <c r="K131" s="2" t="n"/>
-      <c r="L131" s="2" t="n"/>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H131" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I131" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K131" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L131" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
       <c r="M131" s="2" t="n"/>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="2" t="n"/>
@@ -4629,17 +4644,17 @@
       <c r="S143" s="2" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="n"/>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -4649,10 +4664,10 @@
       <c r="H144" s="2" t="n"/>
       <c r="I144" s="2" t="n"/>
       <c r="J144" s="2" t="n"/>
-      <c r="K144" s="2" t="n">
+      <c r="K144" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="L144" s="2" t="n"/>
+      <c r="L144" s="3" t="n"/>
       <c r="M144" s="2" t="n"/>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="2" t="n"/>
@@ -4662,7 +4677,7 @@
       <c r="S144" s="2" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t># 특이사항</t>
         </is>
@@ -4867,27 +4882,27 @@
       <c r="S153" s="2" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" s="3" t="inlineStr">
         <is>
           <t>성명</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" s="3" t="inlineStr">
         <is>
           <t># 주간작업</t>
         </is>
@@ -4926,53 +4941,53 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" s="3" t="inlineStr">
         <is>
           <t>구간</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" s="3" t="inlineStr">
         <is>
           <t>층</t>
         </is>
       </c>
-      <c r="G155" s="2" t="inlineStr">
+      <c r="G155" s="3" t="inlineStr">
         <is>
           <t>형태</t>
         </is>
       </c>
-      <c r="H155" s="2" t="inlineStr">
+      <c r="H155" s="3" t="inlineStr">
         <is>
           <t>작업 단가별 분류</t>
         </is>
       </c>
-      <c r="I155" s="2" t="inlineStr">
+      <c r="I155" s="3" t="inlineStr">
         <is>
           <t>작업내용</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
+      <c r="J155" s="3" t="inlineStr">
         <is>
           <t>공종</t>
         </is>
       </c>
-      <c r="K155" s="2" t="inlineStr">
+      <c r="K155" s="3" t="inlineStr">
         <is>
           <t>공수</t>
         </is>
       </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="L155" s="3" t="inlineStr">
         <is>
           <t>작업명단</t>
         </is>
       </c>
-      <c r="M155" s="2" t="inlineStr"/>
-      <c r="N155" s="2" t="inlineStr"/>
-      <c r="O155" s="2" t="inlineStr"/>
-      <c r="P155" s="2" t="inlineStr"/>
-      <c r="Q155" s="2" t="inlineStr"/>
-      <c r="R155" s="2" t="inlineStr"/>
-      <c r="S155" s="2" t="inlineStr"/>
+      <c r="M155" s="3" t="n"/>
+      <c r="N155" s="3" t="n"/>
+      <c r="O155" s="3" t="n"/>
+      <c r="P155" s="3" t="n"/>
+      <c r="Q155" s="3" t="n"/>
+      <c r="R155" s="3" t="n"/>
+      <c r="S155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -5629,11 +5644,7 @@
       </c>
       <c r="C178" s="2" t="n"/>
       <c r="D178" s="2" t="n"/>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
+      <c r="E178" s="2" t="n"/>
       <c r="F178" s="2" t="n"/>
       <c r="G178" s="2" t="n"/>
       <c r="H178" s="2" t="n"/>
@@ -5662,7 +5673,7 @@
       <c r="D179" s="2" t="n"/>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t># 연장작업</t>
+          <t>합계</t>
         </is>
       </c>
       <c r="F179" s="2" t="n"/>
@@ -5670,7 +5681,9 @@
       <c r="H179" s="2" t="n"/>
       <c r="I179" s="2" t="n"/>
       <c r="J179" s="2" t="n"/>
-      <c r="K179" s="2" t="n"/>
+      <c r="K179" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="L179" s="2" t="n"/>
       <c r="M179" s="2" t="n"/>
       <c r="N179" s="2" t="n"/>
@@ -5691,46 +5704,18 @@
       </c>
       <c r="C180" s="2" t="n"/>
       <c r="D180" s="2" t="n"/>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>구간</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>층</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>형태</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>작업 단가별 분류</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>작업내용</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>공종</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>작업 명단</t>
-        </is>
-      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="n"/>
+      <c r="G180" s="2" t="n"/>
+      <c r="H180" s="2" t="n"/>
+      <c r="I180" s="2" t="n"/>
+      <c r="J180" s="2" t="n"/>
+      <c r="K180" s="2" t="n"/>
+      <c r="L180" s="2" t="n"/>
       <c r="M180" s="2" t="n"/>
       <c r="N180" s="2" t="n"/>
       <c r="O180" s="2" t="n"/>
@@ -5750,14 +5735,46 @@
       </c>
       <c r="C181" s="2" t="n"/>
       <c r="D181" s="2" t="n"/>
-      <c r="E181" s="2" t="n"/>
-      <c r="F181" s="2" t="n"/>
-      <c r="G181" s="2" t="n"/>
-      <c r="H181" s="2" t="n"/>
-      <c r="I181" s="2" t="n"/>
-      <c r="J181" s="2" t="n"/>
-      <c r="K181" s="2" t="n"/>
-      <c r="L181" s="2" t="n"/>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G181" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H181" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I181" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K181" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L181" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
       <c r="M181" s="2" t="n"/>
       <c r="N181" s="2" t="n"/>
       <c r="O181" s="2" t="n"/>
@@ -6091,17 +6108,17 @@
       <c r="S193" s="2" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
       <c r="B194" s="2" t="n"/>
       <c r="C194" s="2" t="n"/>
-      <c r="D194" s="2" t="n">
+      <c r="D194" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
+      <c r="E194" s="3" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -6111,10 +6128,10 @@
       <c r="H194" s="2" t="n"/>
       <c r="I194" s="2" t="n"/>
       <c r="J194" s="2" t="n"/>
-      <c r="K194" s="2" t="n">
+      <c r="K194" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="L194" s="2" t="n"/>
+      <c r="L194" s="3" t="n"/>
       <c r="M194" s="2" t="n"/>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="2" t="n"/>
@@ -6124,7 +6141,7 @@
       <c r="S194" s="2" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t># 특이사항</t>
         </is>
@@ -6232,151 +6249,4730 @@
       <c r="R199" s="2" t="n"/>
       <c r="S199" s="2" t="n"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n"/>
+      <c r="B200" s="2" t="n"/>
+      <c r="C200" s="2" t="n"/>
+      <c r="D200" s="2" t="n"/>
+      <c r="E200" s="2" t="n"/>
+      <c r="F200" s="2" t="n"/>
+      <c r="G200" s="2" t="n"/>
+      <c r="H200" s="2" t="n"/>
+      <c r="I200" s="2" t="n"/>
+      <c r="J200" s="2" t="n"/>
+      <c r="K200" s="2" t="n"/>
+      <c r="L200" s="2" t="n"/>
+      <c r="M200" s="2" t="n"/>
+      <c r="N200" s="2" t="n"/>
+      <c r="O200" s="2" t="n"/>
+      <c r="P200" s="2" t="n"/>
+      <c r="Q200" s="2" t="n"/>
+      <c r="R200" s="2" t="n"/>
+      <c r="S200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>작 업 일 지</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n"/>
+      <c r="C201" s="2" t="n"/>
+      <c r="D201" s="2" t="n"/>
+      <c r="E201" s="2" t="n"/>
+      <c r="F201" s="2" t="n"/>
+      <c r="G201" s="2" t="n"/>
+      <c r="H201" s="2" t="n"/>
+      <c r="I201" s="2" t="n"/>
+      <c r="J201" s="2" t="n"/>
+      <c r="K201" s="2" t="n"/>
+      <c r="L201" s="2" t="n"/>
+      <c r="M201" s="2" t="n"/>
+      <c r="N201" s="2" t="n"/>
+      <c r="O201" s="2" t="n"/>
+      <c r="P201" s="2" t="n"/>
+      <c r="Q201" s="2" t="n"/>
+      <c r="R201" s="2" t="n"/>
+      <c r="S201" s="2" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>현장명 : 마곡</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n"/>
+      <c r="C202" s="2" t="n"/>
+      <c r="D202" s="2" t="n"/>
+      <c r="E202" s="2" t="n"/>
+      <c r="F202" s="2" t="n"/>
+      <c r="G202" s="2" t="n"/>
+      <c r="H202" s="2" t="n"/>
+      <c r="I202" s="2" t="n"/>
+      <c r="J202" s="2" t="n"/>
+      <c r="K202" s="2" t="n"/>
+      <c r="L202" s="2" t="n"/>
+      <c r="M202" s="2" t="n"/>
+      <c r="N202" s="2" t="n"/>
+      <c r="O202" s="2" t="n"/>
+      <c r="P202" s="2" t="n"/>
+      <c r="Q202" s="2" t="n"/>
+      <c r="R202" s="2" t="n"/>
+      <c r="S202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>날짜 : 2025-01-03</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n"/>
+      <c r="C203" s="2" t="n"/>
+      <c r="D203" s="2" t="n"/>
+      <c r="E203" s="2" t="n"/>
+      <c r="F203" s="2" t="n"/>
+      <c r="G203" s="2" t="n"/>
+      <c r="H203" s="2" t="n"/>
+      <c r="I203" s="2" t="n"/>
+      <c r="J203" s="2" t="n"/>
+      <c r="K203" s="2" t="n"/>
+      <c r="L203" s="2" t="n"/>
+      <c r="M203" s="2" t="n"/>
+      <c r="N203" s="2" t="n"/>
+      <c r="O203" s="2" t="n"/>
+      <c r="P203" s="2" t="n"/>
+      <c r="Q203" s="2" t="n"/>
+      <c r="R203" s="2" t="n"/>
+      <c r="S203" s="2" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>성명</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t># 주간작업</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="n"/>
+      <c r="G204" s="2" t="n"/>
+      <c r="H204" s="2" t="n"/>
+      <c r="I204" s="2" t="n"/>
+      <c r="J204" s="2" t="n"/>
+      <c r="K204" s="2" t="n"/>
+      <c r="L204" s="2" t="n"/>
+      <c r="M204" s="2" t="n"/>
+      <c r="N204" s="2" t="n"/>
+      <c r="O204" s="2" t="n"/>
+      <c r="P204" s="2" t="n"/>
+      <c r="Q204" s="2" t="n"/>
+      <c r="R204" s="2" t="n"/>
+      <c r="S204" s="2" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>장해룡</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G205" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H205" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I205" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J205" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K205" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L205" s="3" t="inlineStr">
+        <is>
+          <t>작업명단</t>
+        </is>
+      </c>
+      <c r="M205" s="3" t="n"/>
+      <c r="N205" s="3" t="n"/>
+      <c r="O205" s="3" t="n"/>
+      <c r="P205" s="3" t="n"/>
+      <c r="Q205" s="3" t="n"/>
+      <c r="R205" s="3" t="n"/>
+      <c r="S205" s="3" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="n"/>
+      <c r="D206" s="2" t="n"/>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>바닥및보</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>거푸집설치</t>
+        </is>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L206" s="2" t="n"/>
+      <c r="M206" s="2" t="n"/>
+      <c r="N206" s="2" t="n"/>
+      <c r="O206" s="2" t="n"/>
+      <c r="P206" s="2" t="n"/>
+      <c r="Q206" s="2" t="n"/>
+      <c r="R206" s="2" t="n"/>
+      <c r="S206" s="2" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="n"/>
+      <c r="D207" s="2" t="n"/>
+      <c r="E207" s="2" t="n"/>
+      <c r="F207" s="2" t="n"/>
+      <c r="G207" s="2" t="n"/>
+      <c r="H207" s="2" t="n"/>
+      <c r="I207" s="2" t="n"/>
+      <c r="J207" s="2" t="n"/>
+      <c r="K207" s="2" t="n"/>
+      <c r="L207" s="2" t="n"/>
+      <c r="M207" s="2" t="n"/>
+      <c r="N207" s="2" t="n"/>
+      <c r="O207" s="2" t="n"/>
+      <c r="P207" s="2" t="n"/>
+      <c r="Q207" s="2" t="n"/>
+      <c r="R207" s="2" t="n"/>
+      <c r="S207" s="2" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="n"/>
+      <c r="D208" s="2" t="n"/>
+      <c r="E208" s="2" t="n"/>
+      <c r="F208" s="2" t="n"/>
+      <c r="G208" s="2" t="n"/>
+      <c r="H208" s="2" t="n"/>
+      <c r="I208" s="2" t="n"/>
+      <c r="J208" s="2" t="n"/>
+      <c r="K208" s="2" t="n"/>
+      <c r="L208" s="2" t="n"/>
+      <c r="M208" s="2" t="n"/>
+      <c r="N208" s="2" t="n"/>
+      <c r="O208" s="2" t="n"/>
+      <c r="P208" s="2" t="n"/>
+      <c r="Q208" s="2" t="n"/>
+      <c r="R208" s="2" t="n"/>
+      <c r="S208" s="2" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="n"/>
+      <c r="D209" s="2" t="n"/>
+      <c r="E209" s="2" t="n"/>
+      <c r="F209" s="2" t="n"/>
+      <c r="G209" s="2" t="n"/>
+      <c r="H209" s="2" t="n"/>
+      <c r="I209" s="2" t="n"/>
+      <c r="J209" s="2" t="n"/>
+      <c r="K209" s="2" t="n"/>
+      <c r="L209" s="2" t="n"/>
+      <c r="M209" s="2" t="n"/>
+      <c r="N209" s="2" t="n"/>
+      <c r="O209" s="2" t="n"/>
+      <c r="P209" s="2" t="n"/>
+      <c r="Q209" s="2" t="n"/>
+      <c r="R209" s="2" t="n"/>
+      <c r="S209" s="2" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="n"/>
+      <c r="D210" s="2" t="n"/>
+      <c r="E210" s="2" t="n"/>
+      <c r="F210" s="2" t="n"/>
+      <c r="G210" s="2" t="n"/>
+      <c r="H210" s="2" t="n"/>
+      <c r="I210" s="2" t="n"/>
+      <c r="J210" s="2" t="n"/>
+      <c r="K210" s="2" t="n"/>
+      <c r="L210" s="2" t="n"/>
+      <c r="M210" s="2" t="n"/>
+      <c r="N210" s="2" t="n"/>
+      <c r="O210" s="2" t="n"/>
+      <c r="P210" s="2" t="n"/>
+      <c r="Q210" s="2" t="n"/>
+      <c r="R210" s="2" t="n"/>
+      <c r="S210" s="2" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="n"/>
+      <c r="D211" s="2" t="n"/>
+      <c r="E211" s="2" t="n"/>
+      <c r="F211" s="2" t="n"/>
+      <c r="G211" s="2" t="n"/>
+      <c r="H211" s="2" t="n"/>
+      <c r="I211" s="2" t="n"/>
+      <c r="J211" s="2" t="n"/>
+      <c r="K211" s="2" t="n"/>
+      <c r="L211" s="2" t="n"/>
+      <c r="M211" s="2" t="n"/>
+      <c r="N211" s="2" t="n"/>
+      <c r="O211" s="2" t="n"/>
+      <c r="P211" s="2" t="n"/>
+      <c r="Q211" s="2" t="n"/>
+      <c r="R211" s="2" t="n"/>
+      <c r="S211" s="2" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="n"/>
+      <c r="D212" s="2" t="n"/>
+      <c r="E212" s="2" t="n"/>
+      <c r="F212" s="2" t="n"/>
+      <c r="G212" s="2" t="n"/>
+      <c r="H212" s="2" t="n"/>
+      <c r="I212" s="2" t="n"/>
+      <c r="J212" s="2" t="n"/>
+      <c r="K212" s="2" t="n"/>
+      <c r="L212" s="2" t="n"/>
+      <c r="M212" s="2" t="n"/>
+      <c r="N212" s="2" t="n"/>
+      <c r="O212" s="2" t="n"/>
+      <c r="P212" s="2" t="n"/>
+      <c r="Q212" s="2" t="n"/>
+      <c r="R212" s="2" t="n"/>
+      <c r="S212" s="2" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="n"/>
+      <c r="D213" s="2" t="n"/>
+      <c r="E213" s="2" t="n"/>
+      <c r="F213" s="2" t="n"/>
+      <c r="G213" s="2" t="n"/>
+      <c r="H213" s="2" t="n"/>
+      <c r="I213" s="2" t="n"/>
+      <c r="J213" s="2" t="n"/>
+      <c r="K213" s="2" t="n"/>
+      <c r="L213" s="2" t="n"/>
+      <c r="M213" s="2" t="n"/>
+      <c r="N213" s="2" t="n"/>
+      <c r="O213" s="2" t="n"/>
+      <c r="P213" s="2" t="n"/>
+      <c r="Q213" s="2" t="n"/>
+      <c r="R213" s="2" t="n"/>
+      <c r="S213" s="2" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="n"/>
+      <c r="D214" s="2" t="n"/>
+      <c r="E214" s="2" t="n"/>
+      <c r="F214" s="2" t="n"/>
+      <c r="G214" s="2" t="n"/>
+      <c r="H214" s="2" t="n"/>
+      <c r="I214" s="2" t="n"/>
+      <c r="J214" s="2" t="n"/>
+      <c r="K214" s="2" t="n"/>
+      <c r="L214" s="2" t="n"/>
+      <c r="M214" s="2" t="n"/>
+      <c r="N214" s="2" t="n"/>
+      <c r="O214" s="2" t="n"/>
+      <c r="P214" s="2" t="n"/>
+      <c r="Q214" s="2" t="n"/>
+      <c r="R214" s="2" t="n"/>
+      <c r="S214" s="2" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="n"/>
+      <c r="D215" s="2" t="n"/>
+      <c r="E215" s="2" t="n"/>
+      <c r="F215" s="2" t="n"/>
+      <c r="G215" s="2" t="n"/>
+      <c r="H215" s="2" t="n"/>
+      <c r="I215" s="2" t="n"/>
+      <c r="J215" s="2" t="n"/>
+      <c r="K215" s="2" t="n"/>
+      <c r="L215" s="2" t="n"/>
+      <c r="M215" s="2" t="n"/>
+      <c r="N215" s="2" t="n"/>
+      <c r="O215" s="2" t="n"/>
+      <c r="P215" s="2" t="n"/>
+      <c r="Q215" s="2" t="n"/>
+      <c r="R215" s="2" t="n"/>
+      <c r="S215" s="2" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n"/>
+      <c r="D216" s="2" t="n"/>
+      <c r="E216" s="2" t="n"/>
+      <c r="F216" s="2" t="n"/>
+      <c r="G216" s="2" t="n"/>
+      <c r="H216" s="2" t="n"/>
+      <c r="I216" s="2" t="n"/>
+      <c r="J216" s="2" t="n"/>
+      <c r="K216" s="2" t="n"/>
+      <c r="L216" s="2" t="n"/>
+      <c r="M216" s="2" t="n"/>
+      <c r="N216" s="2" t="n"/>
+      <c r="O216" s="2" t="n"/>
+      <c r="P216" s="2" t="n"/>
+      <c r="Q216" s="2" t="n"/>
+      <c r="R216" s="2" t="n"/>
+      <c r="S216" s="2" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="n"/>
+      <c r="D217" s="2" t="n"/>
+      <c r="E217" s="2" t="n"/>
+      <c r="F217" s="2" t="n"/>
+      <c r="G217" s="2" t="n"/>
+      <c r="H217" s="2" t="n"/>
+      <c r="I217" s="2" t="n"/>
+      <c r="J217" s="2" t="n"/>
+      <c r="K217" s="2" t="n"/>
+      <c r="L217" s="2" t="n"/>
+      <c r="M217" s="2" t="n"/>
+      <c r="N217" s="2" t="n"/>
+      <c r="O217" s="2" t="n"/>
+      <c r="P217" s="2" t="n"/>
+      <c r="Q217" s="2" t="n"/>
+      <c r="R217" s="2" t="n"/>
+      <c r="S217" s="2" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n"/>
+      <c r="D218" s="2" t="n"/>
+      <c r="E218" s="2" t="n"/>
+      <c r="F218" s="2" t="n"/>
+      <c r="G218" s="2" t="n"/>
+      <c r="H218" s="2" t="n"/>
+      <c r="I218" s="2" t="n"/>
+      <c r="J218" s="2" t="n"/>
+      <c r="K218" s="2" t="n"/>
+      <c r="L218" s="2" t="n"/>
+      <c r="M218" s="2" t="n"/>
+      <c r="N218" s="2" t="n"/>
+      <c r="O218" s="2" t="n"/>
+      <c r="P218" s="2" t="n"/>
+      <c r="Q218" s="2" t="n"/>
+      <c r="R218" s="2" t="n"/>
+      <c r="S218" s="2" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="n"/>
+      <c r="D219" s="2" t="n"/>
+      <c r="E219" s="2" t="n"/>
+      <c r="F219" s="2" t="n"/>
+      <c r="G219" s="2" t="n"/>
+      <c r="H219" s="2" t="n"/>
+      <c r="I219" s="2" t="n"/>
+      <c r="J219" s="2" t="n"/>
+      <c r="K219" s="2" t="n"/>
+      <c r="L219" s="2" t="n"/>
+      <c r="M219" s="2" t="n"/>
+      <c r="N219" s="2" t="n"/>
+      <c r="O219" s="2" t="n"/>
+      <c r="P219" s="2" t="n"/>
+      <c r="Q219" s="2" t="n"/>
+      <c r="R219" s="2" t="n"/>
+      <c r="S219" s="2" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n"/>
+      <c r="D220" s="2" t="n"/>
+      <c r="E220" s="2" t="n"/>
+      <c r="F220" s="2" t="n"/>
+      <c r="G220" s="2" t="n"/>
+      <c r="H220" s="2" t="n"/>
+      <c r="I220" s="2" t="n"/>
+      <c r="J220" s="2" t="n"/>
+      <c r="K220" s="2" t="n"/>
+      <c r="L220" s="2" t="n"/>
+      <c r="M220" s="2" t="n"/>
+      <c r="N220" s="2" t="n"/>
+      <c r="O220" s="2" t="n"/>
+      <c r="P220" s="2" t="n"/>
+      <c r="Q220" s="2" t="n"/>
+      <c r="R220" s="2" t="n"/>
+      <c r="S220" s="2" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="n"/>
+      <c r="D221" s="2" t="n"/>
+      <c r="E221" s="2" t="n"/>
+      <c r="F221" s="2" t="n"/>
+      <c r="G221" s="2" t="n"/>
+      <c r="H221" s="2" t="n"/>
+      <c r="I221" s="2" t="n"/>
+      <c r="J221" s="2" t="n"/>
+      <c r="K221" s="2" t="n"/>
+      <c r="L221" s="2" t="n"/>
+      <c r="M221" s="2" t="n"/>
+      <c r="N221" s="2" t="n"/>
+      <c r="O221" s="2" t="n"/>
+      <c r="P221" s="2" t="n"/>
+      <c r="Q221" s="2" t="n"/>
+      <c r="R221" s="2" t="n"/>
+      <c r="S221" s="2" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n"/>
+      <c r="D222" s="2" t="n"/>
+      <c r="E222" s="2" t="n"/>
+      <c r="F222" s="2" t="n"/>
+      <c r="G222" s="2" t="n"/>
+      <c r="H222" s="2" t="n"/>
+      <c r="I222" s="2" t="n"/>
+      <c r="J222" s="2" t="n"/>
+      <c r="K222" s="2" t="n"/>
+      <c r="L222" s="2" t="n"/>
+      <c r="M222" s="2" t="n"/>
+      <c r="N222" s="2" t="n"/>
+      <c r="O222" s="2" t="n"/>
+      <c r="P222" s="2" t="n"/>
+      <c r="Q222" s="2" t="n"/>
+      <c r="R222" s="2" t="n"/>
+      <c r="S222" s="2" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="n"/>
+      <c r="D223" s="2" t="n"/>
+      <c r="E223" s="2" t="n"/>
+      <c r="F223" s="2" t="n"/>
+      <c r="G223" s="2" t="n"/>
+      <c r="H223" s="2" t="n"/>
+      <c r="I223" s="2" t="n"/>
+      <c r="J223" s="2" t="n"/>
+      <c r="K223" s="2" t="n"/>
+      <c r="L223" s="2" t="n"/>
+      <c r="M223" s="2" t="n"/>
+      <c r="N223" s="2" t="n"/>
+      <c r="O223" s="2" t="n"/>
+      <c r="P223" s="2" t="n"/>
+      <c r="Q223" s="2" t="n"/>
+      <c r="R223" s="2" t="n"/>
+      <c r="S223" s="2" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="n"/>
+      <c r="D224" s="2" t="n"/>
+      <c r="E224" s="2" t="n"/>
+      <c r="F224" s="2" t="n"/>
+      <c r="G224" s="2" t="n"/>
+      <c r="H224" s="2" t="n"/>
+      <c r="I224" s="2" t="n"/>
+      <c r="J224" s="2" t="n"/>
+      <c r="K224" s="2" t="n"/>
+      <c r="L224" s="2" t="n"/>
+      <c r="M224" s="2" t="n"/>
+      <c r="N224" s="2" t="n"/>
+      <c r="O224" s="2" t="n"/>
+      <c r="P224" s="2" t="n"/>
+      <c r="Q224" s="2" t="n"/>
+      <c r="R224" s="2" t="n"/>
+      <c r="S224" s="2" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="n"/>
+      <c r="D225" s="2" t="n"/>
+      <c r="E225" s="2" t="n"/>
+      <c r="F225" s="2" t="n"/>
+      <c r="G225" s="2" t="n"/>
+      <c r="H225" s="2" t="n"/>
+      <c r="I225" s="2" t="n"/>
+      <c r="J225" s="2" t="n"/>
+      <c r="K225" s="2" t="n"/>
+      <c r="L225" s="2" t="n"/>
+      <c r="M225" s="2" t="n"/>
+      <c r="N225" s="2" t="n"/>
+      <c r="O225" s="2" t="n"/>
+      <c r="P225" s="2" t="n"/>
+      <c r="Q225" s="2" t="n"/>
+      <c r="R225" s="2" t="n"/>
+      <c r="S225" s="2" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="n"/>
+      <c r="D226" s="2" t="n"/>
+      <c r="E226" s="2" t="n"/>
+      <c r="F226" s="2" t="n"/>
+      <c r="G226" s="2" t="n"/>
+      <c r="H226" s="2" t="n"/>
+      <c r="I226" s="2" t="n"/>
+      <c r="J226" s="2" t="n"/>
+      <c r="K226" s="2" t="n"/>
+      <c r="L226" s="2" t="n"/>
+      <c r="M226" s="2" t="n"/>
+      <c r="N226" s="2" t="n"/>
+      <c r="O226" s="2" t="n"/>
+      <c r="P226" s="2" t="n"/>
+      <c r="Q226" s="2" t="n"/>
+      <c r="R226" s="2" t="n"/>
+      <c r="S226" s="2" t="n"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="n"/>
+      <c r="D227" s="2" t="n"/>
+      <c r="E227" s="2" t="n"/>
+      <c r="F227" s="2" t="n"/>
+      <c r="G227" s="2" t="n"/>
+      <c r="H227" s="2" t="n"/>
+      <c r="I227" s="2" t="n"/>
+      <c r="J227" s="2" t="n"/>
+      <c r="K227" s="2" t="n"/>
+      <c r="L227" s="2" t="n"/>
+      <c r="M227" s="2" t="n"/>
+      <c r="N227" s="2" t="n"/>
+      <c r="O227" s="2" t="n"/>
+      <c r="P227" s="2" t="n"/>
+      <c r="Q227" s="2" t="n"/>
+      <c r="R227" s="2" t="n"/>
+      <c r="S227" s="2" t="n"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="n"/>
+      <c r="D228" s="2" t="n"/>
+      <c r="E228" s="2" t="n"/>
+      <c r="F228" s="2" t="n"/>
+      <c r="G228" s="2" t="n"/>
+      <c r="H228" s="2" t="n"/>
+      <c r="I228" s="2" t="n"/>
+      <c r="J228" s="2" t="n"/>
+      <c r="K228" s="2" t="n"/>
+      <c r="L228" s="2" t="n"/>
+      <c r="M228" s="2" t="n"/>
+      <c r="N228" s="2" t="n"/>
+      <c r="O228" s="2" t="n"/>
+      <c r="P228" s="2" t="n"/>
+      <c r="Q228" s="2" t="n"/>
+      <c r="R228" s="2" t="n"/>
+      <c r="S228" s="2" t="n"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="n"/>
+      <c r="D229" s="2" t="n"/>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="n"/>
+      <c r="G229" s="2" t="n"/>
+      <c r="H229" s="2" t="n"/>
+      <c r="I229" s="2" t="n"/>
+      <c r="J229" s="2" t="n"/>
+      <c r="K229" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L229" s="2" t="n"/>
+      <c r="M229" s="2" t="n"/>
+      <c r="N229" s="2" t="n"/>
+      <c r="O229" s="2" t="n"/>
+      <c r="P229" s="2" t="n"/>
+      <c r="Q229" s="2" t="n"/>
+      <c r="R229" s="2" t="n"/>
+      <c r="S229" s="2" t="n"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="n"/>
+      <c r="D230" s="2" t="n"/>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="n"/>
+      <c r="G230" s="2" t="n"/>
+      <c r="H230" s="2" t="n"/>
+      <c r="I230" s="2" t="n"/>
+      <c r="J230" s="2" t="n"/>
+      <c r="K230" s="2" t="n"/>
+      <c r="L230" s="2" t="n"/>
+      <c r="M230" s="2" t="n"/>
+      <c r="N230" s="2" t="n"/>
+      <c r="O230" s="2" t="n"/>
+      <c r="P230" s="2" t="n"/>
+      <c r="Q230" s="2" t="n"/>
+      <c r="R230" s="2" t="n"/>
+      <c r="S230" s="2" t="n"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="n"/>
+      <c r="D231" s="2" t="n"/>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G231" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H231" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I231" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J231" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K231" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L231" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
+      <c r="M231" s="2" t="n"/>
+      <c r="N231" s="2" t="n"/>
+      <c r="O231" s="2" t="n"/>
+      <c r="P231" s="2" t="n"/>
+      <c r="Q231" s="2" t="n"/>
+      <c r="R231" s="2" t="n"/>
+      <c r="S231" s="2" t="n"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="n"/>
+      <c r="D232" s="2" t="n"/>
+      <c r="E232" s="2" t="n"/>
+      <c r="F232" s="2" t="n"/>
+      <c r="G232" s="2" t="n"/>
+      <c r="H232" s="2" t="n"/>
+      <c r="I232" s="2" t="n"/>
+      <c r="J232" s="2" t="n"/>
+      <c r="K232" s="2" t="n"/>
+      <c r="L232" s="2" t="n"/>
+      <c r="M232" s="2" t="n"/>
+      <c r="N232" s="2" t="n"/>
+      <c r="O232" s="2" t="n"/>
+      <c r="P232" s="2" t="n"/>
+      <c r="Q232" s="2" t="n"/>
+      <c r="R232" s="2" t="n"/>
+      <c r="S232" s="2" t="n"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="n"/>
+      <c r="D233" s="2" t="n"/>
+      <c r="E233" s="2" t="n"/>
+      <c r="F233" s="2" t="n"/>
+      <c r="G233" s="2" t="n"/>
+      <c r="H233" s="2" t="n"/>
+      <c r="I233" s="2" t="n"/>
+      <c r="J233" s="2" t="n"/>
+      <c r="K233" s="2" t="n"/>
+      <c r="L233" s="2" t="n"/>
+      <c r="M233" s="2" t="n"/>
+      <c r="N233" s="2" t="n"/>
+      <c r="O233" s="2" t="n"/>
+      <c r="P233" s="2" t="n"/>
+      <c r="Q233" s="2" t="n"/>
+      <c r="R233" s="2" t="n"/>
+      <c r="S233" s="2" t="n"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="n"/>
+      <c r="D234" s="2" t="n"/>
+      <c r="E234" s="2" t="n"/>
+      <c r="F234" s="2" t="n"/>
+      <c r="G234" s="2" t="n"/>
+      <c r="H234" s="2" t="n"/>
+      <c r="I234" s="2" t="n"/>
+      <c r="J234" s="2" t="n"/>
+      <c r="K234" s="2" t="n"/>
+      <c r="L234" s="2" t="n"/>
+      <c r="M234" s="2" t="n"/>
+      <c r="N234" s="2" t="n"/>
+      <c r="O234" s="2" t="n"/>
+      <c r="P234" s="2" t="n"/>
+      <c r="Q234" s="2" t="n"/>
+      <c r="R234" s="2" t="n"/>
+      <c r="S234" s="2" t="n"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="n"/>
+      <c r="D235" s="2" t="n"/>
+      <c r="E235" s="2" t="n"/>
+      <c r="F235" s="2" t="n"/>
+      <c r="G235" s="2" t="n"/>
+      <c r="H235" s="2" t="n"/>
+      <c r="I235" s="2" t="n"/>
+      <c r="J235" s="2" t="n"/>
+      <c r="K235" s="2" t="n"/>
+      <c r="L235" s="2" t="n"/>
+      <c r="M235" s="2" t="n"/>
+      <c r="N235" s="2" t="n"/>
+      <c r="O235" s="2" t="n"/>
+      <c r="P235" s="2" t="n"/>
+      <c r="Q235" s="2" t="n"/>
+      <c r="R235" s="2" t="n"/>
+      <c r="S235" s="2" t="n"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="n"/>
+      <c r="D236" s="2" t="n"/>
+      <c r="E236" s="2" t="n"/>
+      <c r="F236" s="2" t="n"/>
+      <c r="G236" s="2" t="n"/>
+      <c r="H236" s="2" t="n"/>
+      <c r="I236" s="2" t="n"/>
+      <c r="J236" s="2" t="n"/>
+      <c r="K236" s="2" t="n"/>
+      <c r="L236" s="2" t="n"/>
+      <c r="M236" s="2" t="n"/>
+      <c r="N236" s="2" t="n"/>
+      <c r="O236" s="2" t="n"/>
+      <c r="P236" s="2" t="n"/>
+      <c r="Q236" s="2" t="n"/>
+      <c r="R236" s="2" t="n"/>
+      <c r="S236" s="2" t="n"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="n"/>
+      <c r="D237" s="2" t="n"/>
+      <c r="E237" s="2" t="n"/>
+      <c r="F237" s="2" t="n"/>
+      <c r="G237" s="2" t="n"/>
+      <c r="H237" s="2" t="n"/>
+      <c r="I237" s="2" t="n"/>
+      <c r="J237" s="2" t="n"/>
+      <c r="K237" s="2" t="n"/>
+      <c r="L237" s="2" t="n"/>
+      <c r="M237" s="2" t="n"/>
+      <c r="N237" s="2" t="n"/>
+      <c r="O237" s="2" t="n"/>
+      <c r="P237" s="2" t="n"/>
+      <c r="Q237" s="2" t="n"/>
+      <c r="R237" s="2" t="n"/>
+      <c r="S237" s="2" t="n"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="n"/>
+      <c r="D238" s="2" t="n"/>
+      <c r="E238" s="2" t="n"/>
+      <c r="F238" s="2" t="n"/>
+      <c r="G238" s="2" t="n"/>
+      <c r="H238" s="2" t="n"/>
+      <c r="I238" s="2" t="n"/>
+      <c r="J238" s="2" t="n"/>
+      <c r="K238" s="2" t="n"/>
+      <c r="L238" s="2" t="n"/>
+      <c r="M238" s="2" t="n"/>
+      <c r="N238" s="2" t="n"/>
+      <c r="O238" s="2" t="n"/>
+      <c r="P238" s="2" t="n"/>
+      <c r="Q238" s="2" t="n"/>
+      <c r="R238" s="2" t="n"/>
+      <c r="S238" s="2" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="n"/>
+      <c r="D239" s="2" t="n"/>
+      <c r="E239" s="2" t="n"/>
+      <c r="F239" s="2" t="n"/>
+      <c r="G239" s="2" t="n"/>
+      <c r="H239" s="2" t="n"/>
+      <c r="I239" s="2" t="n"/>
+      <c r="J239" s="2" t="n"/>
+      <c r="K239" s="2" t="n"/>
+      <c r="L239" s="2" t="n"/>
+      <c r="M239" s="2" t="n"/>
+      <c r="N239" s="2" t="n"/>
+      <c r="O239" s="2" t="n"/>
+      <c r="P239" s="2" t="n"/>
+      <c r="Q239" s="2" t="n"/>
+      <c r="R239" s="2" t="n"/>
+      <c r="S239" s="2" t="n"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="n"/>
+      <c r="D240" s="2" t="n"/>
+      <c r="E240" s="2" t="n"/>
+      <c r="F240" s="2" t="n"/>
+      <c r="G240" s="2" t="n"/>
+      <c r="H240" s="2" t="n"/>
+      <c r="I240" s="2" t="n"/>
+      <c r="J240" s="2" t="n"/>
+      <c r="K240" s="2" t="n"/>
+      <c r="L240" s="2" t="n"/>
+      <c r="M240" s="2" t="n"/>
+      <c r="N240" s="2" t="n"/>
+      <c r="O240" s="2" t="n"/>
+      <c r="P240" s="2" t="n"/>
+      <c r="Q240" s="2" t="n"/>
+      <c r="R240" s="2" t="n"/>
+      <c r="S240" s="2" t="n"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="n"/>
+      <c r="D241" s="2" t="n"/>
+      <c r="E241" s="2" t="n"/>
+      <c r="F241" s="2" t="n"/>
+      <c r="G241" s="2" t="n"/>
+      <c r="H241" s="2" t="n"/>
+      <c r="I241" s="2" t="n"/>
+      <c r="J241" s="2" t="n"/>
+      <c r="K241" s="2" t="n"/>
+      <c r="L241" s="2" t="n"/>
+      <c r="M241" s="2" t="n"/>
+      <c r="N241" s="2" t="n"/>
+      <c r="O241" s="2" t="n"/>
+      <c r="P241" s="2" t="n"/>
+      <c r="Q241" s="2" t="n"/>
+      <c r="R241" s="2" t="n"/>
+      <c r="S241" s="2" t="n"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="n"/>
+      <c r="D242" s="2" t="n"/>
+      <c r="E242" s="2" t="n"/>
+      <c r="F242" s="2" t="n"/>
+      <c r="G242" s="2" t="n"/>
+      <c r="H242" s="2" t="n"/>
+      <c r="I242" s="2" t="n"/>
+      <c r="J242" s="2" t="n"/>
+      <c r="K242" s="2" t="n"/>
+      <c r="L242" s="2" t="n"/>
+      <c r="M242" s="2" t="n"/>
+      <c r="N242" s="2" t="n"/>
+      <c r="O242" s="2" t="n"/>
+      <c r="P242" s="2" t="n"/>
+      <c r="Q242" s="2" t="n"/>
+      <c r="R242" s="2" t="n"/>
+      <c r="S242" s="2" t="n"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="n"/>
+      <c r="D243" s="2" t="n"/>
+      <c r="E243" s="2" t="n"/>
+      <c r="F243" s="2" t="n"/>
+      <c r="G243" s="2" t="n"/>
+      <c r="H243" s="2" t="n"/>
+      <c r="I243" s="2" t="n"/>
+      <c r="J243" s="2" t="n"/>
+      <c r="K243" s="2" t="n"/>
+      <c r="L243" s="2" t="n"/>
+      <c r="M243" s="2" t="n"/>
+      <c r="N243" s="2" t="n"/>
+      <c r="O243" s="2" t="n"/>
+      <c r="P243" s="2" t="n"/>
+      <c r="Q243" s="2" t="n"/>
+      <c r="R243" s="2" t="n"/>
+      <c r="S243" s="2" t="n"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n"/>
+      <c r="C244" s="2" t="n"/>
+      <c r="D244" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="n"/>
+      <c r="G244" s="2" t="n"/>
+      <c r="H244" s="2" t="n"/>
+      <c r="I244" s="2" t="n"/>
+      <c r="J244" s="2" t="n"/>
+      <c r="K244" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L244" s="3" t="n"/>
+      <c r="M244" s="2" t="n"/>
+      <c r="N244" s="2" t="n"/>
+      <c r="O244" s="2" t="n"/>
+      <c r="P244" s="2" t="n"/>
+      <c r="Q244" s="2" t="n"/>
+      <c r="R244" s="2" t="n"/>
+      <c r="S244" s="2" t="n"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t># 특이사항</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n"/>
+      <c r="C245" s="2" t="n"/>
+      <c r="D245" s="2" t="n"/>
+      <c r="E245" s="2" t="n"/>
+      <c r="F245" s="2" t="n"/>
+      <c r="G245" s="2" t="n"/>
+      <c r="H245" s="2" t="n"/>
+      <c r="I245" s="2" t="n"/>
+      <c r="J245" s="2" t="n"/>
+      <c r="K245" s="2" t="n"/>
+      <c r="L245" s="2" t="n"/>
+      <c r="M245" s="2" t="n"/>
+      <c r="N245" s="2" t="n"/>
+      <c r="O245" s="2" t="n"/>
+      <c r="P245" s="2" t="n"/>
+      <c r="Q245" s="2" t="n"/>
+      <c r="R245" s="2" t="n"/>
+      <c r="S245" s="2" t="n"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n"/>
+      <c r="B246" s="2" t="n"/>
+      <c r="C246" s="2" t="n"/>
+      <c r="D246" s="2" t="n"/>
+      <c r="E246" s="2" t="n"/>
+      <c r="F246" s="2" t="n"/>
+      <c r="G246" s="2" t="n"/>
+      <c r="H246" s="2" t="n"/>
+      <c r="I246" s="2" t="n"/>
+      <c r="J246" s="2" t="n"/>
+      <c r="K246" s="2" t="n"/>
+      <c r="L246" s="2" t="n"/>
+      <c r="M246" s="2" t="n"/>
+      <c r="N246" s="2" t="n"/>
+      <c r="O246" s="2" t="n"/>
+      <c r="P246" s="2" t="n"/>
+      <c r="Q246" s="2" t="n"/>
+      <c r="R246" s="2" t="n"/>
+      <c r="S246" s="2" t="n"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n"/>
+      <c r="B247" s="2" t="n"/>
+      <c r="C247" s="2" t="n"/>
+      <c r="D247" s="2" t="n"/>
+      <c r="E247" s="2" t="n"/>
+      <c r="F247" s="2" t="n"/>
+      <c r="G247" s="2" t="n"/>
+      <c r="H247" s="2" t="n"/>
+      <c r="I247" s="2" t="n"/>
+      <c r="J247" s="2" t="n"/>
+      <c r="K247" s="2" t="n"/>
+      <c r="L247" s="2" t="n"/>
+      <c r="M247" s="2" t="n"/>
+      <c r="N247" s="2" t="n"/>
+      <c r="O247" s="2" t="n"/>
+      <c r="P247" s="2" t="n"/>
+      <c r="Q247" s="2" t="n"/>
+      <c r="R247" s="2" t="n"/>
+      <c r="S247" s="2" t="n"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n"/>
+      <c r="B248" s="2" t="n"/>
+      <c r="C248" s="2" t="n"/>
+      <c r="D248" s="2" t="n"/>
+      <c r="E248" s="2" t="n"/>
+      <c r="F248" s="2" t="n"/>
+      <c r="G248" s="2" t="n"/>
+      <c r="H248" s="2" t="n"/>
+      <c r="I248" s="2" t="n"/>
+      <c r="J248" s="2" t="n"/>
+      <c r="K248" s="2" t="n"/>
+      <c r="L248" s="2" t="n"/>
+      <c r="M248" s="2" t="n"/>
+      <c r="N248" s="2" t="n"/>
+      <c r="O248" s="2" t="n"/>
+      <c r="P248" s="2" t="n"/>
+      <c r="Q248" s="2" t="n"/>
+      <c r="R248" s="2" t="n"/>
+      <c r="S248" s="2" t="n"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n"/>
+      <c r="B249" s="2" t="n"/>
+      <c r="C249" s="2" t="n"/>
+      <c r="D249" s="2" t="n"/>
+      <c r="E249" s="2" t="n"/>
+      <c r="F249" s="2" t="n"/>
+      <c r="G249" s="2" t="n"/>
+      <c r="H249" s="2" t="n"/>
+      <c r="I249" s="2" t="n"/>
+      <c r="J249" s="2" t="n"/>
+      <c r="K249" s="2" t="n"/>
+      <c r="L249" s="2" t="n"/>
+      <c r="M249" s="2" t="n"/>
+      <c r="N249" s="2" t="n"/>
+      <c r="O249" s="2" t="n"/>
+      <c r="P249" s="2" t="n"/>
+      <c r="Q249" s="2" t="n"/>
+      <c r="R249" s="2" t="n"/>
+      <c r="S249" s="2" t="n"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n"/>
+      <c r="B250" s="2" t="n"/>
+      <c r="C250" s="2" t="n"/>
+      <c r="D250" s="2" t="n"/>
+      <c r="E250" s="2" t="n"/>
+      <c r="F250" s="2" t="n"/>
+      <c r="G250" s="2" t="n"/>
+      <c r="H250" s="2" t="n"/>
+      <c r="I250" s="2" t="n"/>
+      <c r="J250" s="2" t="n"/>
+      <c r="K250" s="2" t="n"/>
+      <c r="L250" s="2" t="n"/>
+      <c r="M250" s="2" t="n"/>
+      <c r="N250" s="2" t="n"/>
+      <c r="O250" s="2" t="n"/>
+      <c r="P250" s="2" t="n"/>
+      <c r="Q250" s="2" t="n"/>
+      <c r="R250" s="2" t="n"/>
+      <c r="S250" s="2" t="n"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>작 업 일 지</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n"/>
+      <c r="C251" s="2" t="n"/>
+      <c r="D251" s="2" t="n"/>
+      <c r="E251" s="2" t="n"/>
+      <c r="F251" s="2" t="n"/>
+      <c r="G251" s="2" t="n"/>
+      <c r="H251" s="2" t="n"/>
+      <c r="I251" s="2" t="n"/>
+      <c r="J251" s="2" t="n"/>
+      <c r="K251" s="2" t="n"/>
+      <c r="L251" s="2" t="n"/>
+      <c r="M251" s="2" t="n"/>
+      <c r="N251" s="2" t="n"/>
+      <c r="O251" s="2" t="n"/>
+      <c r="P251" s="2" t="n"/>
+      <c r="Q251" s="2" t="n"/>
+      <c r="R251" s="2" t="n"/>
+      <c r="S251" s="2" t="n"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>현장명 : 마곡</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n"/>
+      <c r="C252" s="2" t="n"/>
+      <c r="D252" s="2" t="n"/>
+      <c r="E252" s="2" t="n"/>
+      <c r="F252" s="2" t="n"/>
+      <c r="G252" s="2" t="n"/>
+      <c r="H252" s="2" t="n"/>
+      <c r="I252" s="2" t="n"/>
+      <c r="J252" s="2" t="n"/>
+      <c r="K252" s="2" t="n"/>
+      <c r="L252" s="2" t="n"/>
+      <c r="M252" s="2" t="n"/>
+      <c r="N252" s="2" t="n"/>
+      <c r="O252" s="2" t="n"/>
+      <c r="P252" s="2" t="n"/>
+      <c r="Q252" s="2" t="n"/>
+      <c r="R252" s="2" t="n"/>
+      <c r="S252" s="2" t="n"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>날짜 : 2025-01-03</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n"/>
+      <c r="C253" s="2" t="n"/>
+      <c r="D253" s="2" t="n"/>
+      <c r="E253" s="2" t="n"/>
+      <c r="F253" s="2" t="n"/>
+      <c r="G253" s="2" t="n"/>
+      <c r="H253" s="2" t="n"/>
+      <c r="I253" s="2" t="n"/>
+      <c r="J253" s="2" t="n"/>
+      <c r="K253" s="2" t="n"/>
+      <c r="L253" s="2" t="n"/>
+      <c r="M253" s="2" t="n"/>
+      <c r="N253" s="2" t="n"/>
+      <c r="O253" s="2" t="n"/>
+      <c r="P253" s="2" t="n"/>
+      <c r="Q253" s="2" t="n"/>
+      <c r="R253" s="2" t="n"/>
+      <c r="S253" s="2" t="n"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>성명</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t># 주간작업</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="n"/>
+      <c r="G254" s="2" t="n"/>
+      <c r="H254" s="2" t="n"/>
+      <c r="I254" s="2" t="n"/>
+      <c r="J254" s="2" t="n"/>
+      <c r="K254" s="2" t="n"/>
+      <c r="L254" s="2" t="n"/>
+      <c r="M254" s="2" t="n"/>
+      <c r="N254" s="2" t="n"/>
+      <c r="O254" s="2" t="n"/>
+      <c r="P254" s="2" t="n"/>
+      <c r="Q254" s="2" t="n"/>
+      <c r="R254" s="2" t="n"/>
+      <c r="S254" s="2" t="n"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>김서준</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F255" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G255" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H255" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I255" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J255" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K255" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L255" s="3" t="inlineStr">
+        <is>
+          <t>작업명단</t>
+        </is>
+      </c>
+      <c r="M255" s="3" t="n"/>
+      <c r="N255" s="3" t="n"/>
+      <c r="O255" s="3" t="n"/>
+      <c r="P255" s="3" t="n"/>
+      <c r="Q255" s="3" t="n"/>
+      <c r="R255" s="3" t="n"/>
+      <c r="S255" s="3" t="n"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>코어벽체</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="inlineStr">
+        <is>
+          <t>알폼자재양중작업</t>
+        </is>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L256" s="2" t="n"/>
+      <c r="M256" s="2" t="n"/>
+      <c r="N256" s="2" t="n"/>
+      <c r="O256" s="2" t="n"/>
+      <c r="P256" s="2" t="n"/>
+      <c r="Q256" s="2" t="n"/>
+      <c r="R256" s="2" t="n"/>
+      <c r="S256" s="2" t="n"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>노하람</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n"/>
+      <c r="F257" s="2" t="n"/>
+      <c r="G257" s="2" t="n"/>
+      <c r="H257" s="2" t="n"/>
+      <c r="I257" s="2" t="n"/>
+      <c r="J257" s="2" t="n"/>
+      <c r="K257" s="2" t="n"/>
+      <c r="L257" s="2" t="n"/>
+      <c r="M257" s="2" t="n"/>
+      <c r="N257" s="2" t="n"/>
+      <c r="O257" s="2" t="n"/>
+      <c r="P257" s="2" t="n"/>
+      <c r="Q257" s="2" t="n"/>
+      <c r="R257" s="2" t="n"/>
+      <c r="S257" s="2" t="n"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="n"/>
+      <c r="D258" s="2" t="n"/>
+      <c r="E258" s="2" t="n"/>
+      <c r="F258" s="2" t="n"/>
+      <c r="G258" s="2" t="n"/>
+      <c r="H258" s="2" t="n"/>
+      <c r="I258" s="2" t="n"/>
+      <c r="J258" s="2" t="n"/>
+      <c r="K258" s="2" t="n"/>
+      <c r="L258" s="2" t="n"/>
+      <c r="M258" s="2" t="n"/>
+      <c r="N258" s="2" t="n"/>
+      <c r="O258" s="2" t="n"/>
+      <c r="P258" s="2" t="n"/>
+      <c r="Q258" s="2" t="n"/>
+      <c r="R258" s="2" t="n"/>
+      <c r="S258" s="2" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="n"/>
+      <c r="D259" s="2" t="n"/>
+      <c r="E259" s="2" t="n"/>
+      <c r="F259" s="2" t="n"/>
+      <c r="G259" s="2" t="n"/>
+      <c r="H259" s="2" t="n"/>
+      <c r="I259" s="2" t="n"/>
+      <c r="J259" s="2" t="n"/>
+      <c r="K259" s="2" t="n"/>
+      <c r="L259" s="2" t="n"/>
+      <c r="M259" s="2" t="n"/>
+      <c r="N259" s="2" t="n"/>
+      <c r="O259" s="2" t="n"/>
+      <c r="P259" s="2" t="n"/>
+      <c r="Q259" s="2" t="n"/>
+      <c r="R259" s="2" t="n"/>
+      <c r="S259" s="2" t="n"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="n"/>
+      <c r="D260" s="2" t="n"/>
+      <c r="E260" s="2" t="n"/>
+      <c r="F260" s="2" t="n"/>
+      <c r="G260" s="2" t="n"/>
+      <c r="H260" s="2" t="n"/>
+      <c r="I260" s="2" t="n"/>
+      <c r="J260" s="2" t="n"/>
+      <c r="K260" s="2" t="n"/>
+      <c r="L260" s="2" t="n"/>
+      <c r="M260" s="2" t="n"/>
+      <c r="N260" s="2" t="n"/>
+      <c r="O260" s="2" t="n"/>
+      <c r="P260" s="2" t="n"/>
+      <c r="Q260" s="2" t="n"/>
+      <c r="R260" s="2" t="n"/>
+      <c r="S260" s="2" t="n"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="n"/>
+      <c r="D261" s="2" t="n"/>
+      <c r="E261" s="2" t="n"/>
+      <c r="F261" s="2" t="n"/>
+      <c r="G261" s="2" t="n"/>
+      <c r="H261" s="2" t="n"/>
+      <c r="I261" s="2" t="n"/>
+      <c r="J261" s="2" t="n"/>
+      <c r="K261" s="2" t="n"/>
+      <c r="L261" s="2" t="n"/>
+      <c r="M261" s="2" t="n"/>
+      <c r="N261" s="2" t="n"/>
+      <c r="O261" s="2" t="n"/>
+      <c r="P261" s="2" t="n"/>
+      <c r="Q261" s="2" t="n"/>
+      <c r="R261" s="2" t="n"/>
+      <c r="S261" s="2" t="n"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="n"/>
+      <c r="D262" s="2" t="n"/>
+      <c r="E262" s="2" t="n"/>
+      <c r="F262" s="2" t="n"/>
+      <c r="G262" s="2" t="n"/>
+      <c r="H262" s="2" t="n"/>
+      <c r="I262" s="2" t="n"/>
+      <c r="J262" s="2" t="n"/>
+      <c r="K262" s="2" t="n"/>
+      <c r="L262" s="2" t="n"/>
+      <c r="M262" s="2" t="n"/>
+      <c r="N262" s="2" t="n"/>
+      <c r="O262" s="2" t="n"/>
+      <c r="P262" s="2" t="n"/>
+      <c r="Q262" s="2" t="n"/>
+      <c r="R262" s="2" t="n"/>
+      <c r="S262" s="2" t="n"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="n"/>
+      <c r="D263" s="2" t="n"/>
+      <c r="E263" s="2" t="n"/>
+      <c r="F263" s="2" t="n"/>
+      <c r="G263" s="2" t="n"/>
+      <c r="H263" s="2" t="n"/>
+      <c r="I263" s="2" t="n"/>
+      <c r="J263" s="2" t="n"/>
+      <c r="K263" s="2" t="n"/>
+      <c r="L263" s="2" t="n"/>
+      <c r="M263" s="2" t="n"/>
+      <c r="N263" s="2" t="n"/>
+      <c r="O263" s="2" t="n"/>
+      <c r="P263" s="2" t="n"/>
+      <c r="Q263" s="2" t="n"/>
+      <c r="R263" s="2" t="n"/>
+      <c r="S263" s="2" t="n"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="n"/>
+      <c r="D264" s="2" t="n"/>
+      <c r="E264" s="2" t="n"/>
+      <c r="F264" s="2" t="n"/>
+      <c r="G264" s="2" t="n"/>
+      <c r="H264" s="2" t="n"/>
+      <c r="I264" s="2" t="n"/>
+      <c r="J264" s="2" t="n"/>
+      <c r="K264" s="2" t="n"/>
+      <c r="L264" s="2" t="n"/>
+      <c r="M264" s="2" t="n"/>
+      <c r="N264" s="2" t="n"/>
+      <c r="O264" s="2" t="n"/>
+      <c r="P264" s="2" t="n"/>
+      <c r="Q264" s="2" t="n"/>
+      <c r="R264" s="2" t="n"/>
+      <c r="S264" s="2" t="n"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="n"/>
+      <c r="D265" s="2" t="n"/>
+      <c r="E265" s="2" t="n"/>
+      <c r="F265" s="2" t="n"/>
+      <c r="G265" s="2" t="n"/>
+      <c r="H265" s="2" t="n"/>
+      <c r="I265" s="2" t="n"/>
+      <c r="J265" s="2" t="n"/>
+      <c r="K265" s="2" t="n"/>
+      <c r="L265" s="2" t="n"/>
+      <c r="M265" s="2" t="n"/>
+      <c r="N265" s="2" t="n"/>
+      <c r="O265" s="2" t="n"/>
+      <c r="P265" s="2" t="n"/>
+      <c r="Q265" s="2" t="n"/>
+      <c r="R265" s="2" t="n"/>
+      <c r="S265" s="2" t="n"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="n"/>
+      <c r="D266" s="2" t="n"/>
+      <c r="E266" s="2" t="n"/>
+      <c r="F266" s="2" t="n"/>
+      <c r="G266" s="2" t="n"/>
+      <c r="H266" s="2" t="n"/>
+      <c r="I266" s="2" t="n"/>
+      <c r="J266" s="2" t="n"/>
+      <c r="K266" s="2" t="n"/>
+      <c r="L266" s="2" t="n"/>
+      <c r="M266" s="2" t="n"/>
+      <c r="N266" s="2" t="n"/>
+      <c r="O266" s="2" t="n"/>
+      <c r="P266" s="2" t="n"/>
+      <c r="Q266" s="2" t="n"/>
+      <c r="R266" s="2" t="n"/>
+      <c r="S266" s="2" t="n"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="n"/>
+      <c r="D267" s="2" t="n"/>
+      <c r="E267" s="2" t="n"/>
+      <c r="F267" s="2" t="n"/>
+      <c r="G267" s="2" t="n"/>
+      <c r="H267" s="2" t="n"/>
+      <c r="I267" s="2" t="n"/>
+      <c r="J267" s="2" t="n"/>
+      <c r="K267" s="2" t="n"/>
+      <c r="L267" s="2" t="n"/>
+      <c r="M267" s="2" t="n"/>
+      <c r="N267" s="2" t="n"/>
+      <c r="O267" s="2" t="n"/>
+      <c r="P267" s="2" t="n"/>
+      <c r="Q267" s="2" t="n"/>
+      <c r="R267" s="2" t="n"/>
+      <c r="S267" s="2" t="n"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="n"/>
+      <c r="D268" s="2" t="n"/>
+      <c r="E268" s="2" t="n"/>
+      <c r="F268" s="2" t="n"/>
+      <c r="G268" s="2" t="n"/>
+      <c r="H268" s="2" t="n"/>
+      <c r="I268" s="2" t="n"/>
+      <c r="J268" s="2" t="n"/>
+      <c r="K268" s="2" t="n"/>
+      <c r="L268" s="2" t="n"/>
+      <c r="M268" s="2" t="n"/>
+      <c r="N268" s="2" t="n"/>
+      <c r="O268" s="2" t="n"/>
+      <c r="P268" s="2" t="n"/>
+      <c r="Q268" s="2" t="n"/>
+      <c r="R268" s="2" t="n"/>
+      <c r="S268" s="2" t="n"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="n"/>
+      <c r="D269" s="2" t="n"/>
+      <c r="E269" s="2" t="n"/>
+      <c r="F269" s="2" t="n"/>
+      <c r="G269" s="2" t="n"/>
+      <c r="H269" s="2" t="n"/>
+      <c r="I269" s="2" t="n"/>
+      <c r="J269" s="2" t="n"/>
+      <c r="K269" s="2" t="n"/>
+      <c r="L269" s="2" t="n"/>
+      <c r="M269" s="2" t="n"/>
+      <c r="N269" s="2" t="n"/>
+      <c r="O269" s="2" t="n"/>
+      <c r="P269" s="2" t="n"/>
+      <c r="Q269" s="2" t="n"/>
+      <c r="R269" s="2" t="n"/>
+      <c r="S269" s="2" t="n"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="n"/>
+      <c r="D270" s="2" t="n"/>
+      <c r="E270" s="2" t="n"/>
+      <c r="F270" s="2" t="n"/>
+      <c r="G270" s="2" t="n"/>
+      <c r="H270" s="2" t="n"/>
+      <c r="I270" s="2" t="n"/>
+      <c r="J270" s="2" t="n"/>
+      <c r="K270" s="2" t="n"/>
+      <c r="L270" s="2" t="n"/>
+      <c r="M270" s="2" t="n"/>
+      <c r="N270" s="2" t="n"/>
+      <c r="O270" s="2" t="n"/>
+      <c r="P270" s="2" t="n"/>
+      <c r="Q270" s="2" t="n"/>
+      <c r="R270" s="2" t="n"/>
+      <c r="S270" s="2" t="n"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="n"/>
+      <c r="D271" s="2" t="n"/>
+      <c r="E271" s="2" t="n"/>
+      <c r="F271" s="2" t="n"/>
+      <c r="G271" s="2" t="n"/>
+      <c r="H271" s="2" t="n"/>
+      <c r="I271" s="2" t="n"/>
+      <c r="J271" s="2" t="n"/>
+      <c r="K271" s="2" t="n"/>
+      <c r="L271" s="2" t="n"/>
+      <c r="M271" s="2" t="n"/>
+      <c r="N271" s="2" t="n"/>
+      <c r="O271" s="2" t="n"/>
+      <c r="P271" s="2" t="n"/>
+      <c r="Q271" s="2" t="n"/>
+      <c r="R271" s="2" t="n"/>
+      <c r="S271" s="2" t="n"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="n"/>
+      <c r="D272" s="2" t="n"/>
+      <c r="E272" s="2" t="n"/>
+      <c r="F272" s="2" t="n"/>
+      <c r="G272" s="2" t="n"/>
+      <c r="H272" s="2" t="n"/>
+      <c r="I272" s="2" t="n"/>
+      <c r="J272" s="2" t="n"/>
+      <c r="K272" s="2" t="n"/>
+      <c r="L272" s="2" t="n"/>
+      <c r="M272" s="2" t="n"/>
+      <c r="N272" s="2" t="n"/>
+      <c r="O272" s="2" t="n"/>
+      <c r="P272" s="2" t="n"/>
+      <c r="Q272" s="2" t="n"/>
+      <c r="R272" s="2" t="n"/>
+      <c r="S272" s="2" t="n"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="n"/>
+      <c r="D273" s="2" t="n"/>
+      <c r="E273" s="2" t="n"/>
+      <c r="F273" s="2" t="n"/>
+      <c r="G273" s="2" t="n"/>
+      <c r="H273" s="2" t="n"/>
+      <c r="I273" s="2" t="n"/>
+      <c r="J273" s="2" t="n"/>
+      <c r="K273" s="2" t="n"/>
+      <c r="L273" s="2" t="n"/>
+      <c r="M273" s="2" t="n"/>
+      <c r="N273" s="2" t="n"/>
+      <c r="O273" s="2" t="n"/>
+      <c r="P273" s="2" t="n"/>
+      <c r="Q273" s="2" t="n"/>
+      <c r="R273" s="2" t="n"/>
+      <c r="S273" s="2" t="n"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="n"/>
+      <c r="D274" s="2" t="n"/>
+      <c r="E274" s="2" t="n"/>
+      <c r="F274" s="2" t="n"/>
+      <c r="G274" s="2" t="n"/>
+      <c r="H274" s="2" t="n"/>
+      <c r="I274" s="2" t="n"/>
+      <c r="J274" s="2" t="n"/>
+      <c r="K274" s="2" t="n"/>
+      <c r="L274" s="2" t="n"/>
+      <c r="M274" s="2" t="n"/>
+      <c r="N274" s="2" t="n"/>
+      <c r="O274" s="2" t="n"/>
+      <c r="P274" s="2" t="n"/>
+      <c r="Q274" s="2" t="n"/>
+      <c r="R274" s="2" t="n"/>
+      <c r="S274" s="2" t="n"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="n"/>
+      <c r="D275" s="2" t="n"/>
+      <c r="E275" s="2" t="n"/>
+      <c r="F275" s="2" t="n"/>
+      <c r="G275" s="2" t="n"/>
+      <c r="H275" s="2" t="n"/>
+      <c r="I275" s="2" t="n"/>
+      <c r="J275" s="2" t="n"/>
+      <c r="K275" s="2" t="n"/>
+      <c r="L275" s="2" t="n"/>
+      <c r="M275" s="2" t="n"/>
+      <c r="N275" s="2" t="n"/>
+      <c r="O275" s="2" t="n"/>
+      <c r="P275" s="2" t="n"/>
+      <c r="Q275" s="2" t="n"/>
+      <c r="R275" s="2" t="n"/>
+      <c r="S275" s="2" t="n"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="n"/>
+      <c r="D276" s="2" t="n"/>
+      <c r="E276" s="2" t="n"/>
+      <c r="F276" s="2" t="n"/>
+      <c r="G276" s="2" t="n"/>
+      <c r="H276" s="2" t="n"/>
+      <c r="I276" s="2" t="n"/>
+      <c r="J276" s="2" t="n"/>
+      <c r="K276" s="2" t="n"/>
+      <c r="L276" s="2" t="n"/>
+      <c r="M276" s="2" t="n"/>
+      <c r="N276" s="2" t="n"/>
+      <c r="O276" s="2" t="n"/>
+      <c r="P276" s="2" t="n"/>
+      <c r="Q276" s="2" t="n"/>
+      <c r="R276" s="2" t="n"/>
+      <c r="S276" s="2" t="n"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="n"/>
+      <c r="D277" s="2" t="n"/>
+      <c r="E277" s="2" t="n"/>
+      <c r="F277" s="2" t="n"/>
+      <c r="G277" s="2" t="n"/>
+      <c r="H277" s="2" t="n"/>
+      <c r="I277" s="2" t="n"/>
+      <c r="J277" s="2" t="n"/>
+      <c r="K277" s="2" t="n"/>
+      <c r="L277" s="2" t="n"/>
+      <c r="M277" s="2" t="n"/>
+      <c r="N277" s="2" t="n"/>
+      <c r="O277" s="2" t="n"/>
+      <c r="P277" s="2" t="n"/>
+      <c r="Q277" s="2" t="n"/>
+      <c r="R277" s="2" t="n"/>
+      <c r="S277" s="2" t="n"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="n"/>
+      <c r="D278" s="2" t="n"/>
+      <c r="E278" s="2" t="n"/>
+      <c r="F278" s="2" t="n"/>
+      <c r="G278" s="2" t="n"/>
+      <c r="H278" s="2" t="n"/>
+      <c r="I278" s="2" t="n"/>
+      <c r="J278" s="2" t="n"/>
+      <c r="K278" s="2" t="n"/>
+      <c r="L278" s="2" t="n"/>
+      <c r="M278" s="2" t="n"/>
+      <c r="N278" s="2" t="n"/>
+      <c r="O278" s="2" t="n"/>
+      <c r="P278" s="2" t="n"/>
+      <c r="Q278" s="2" t="n"/>
+      <c r="R278" s="2" t="n"/>
+      <c r="S278" s="2" t="n"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="n"/>
+      <c r="D279" s="2" t="n"/>
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="n"/>
+      <c r="G279" s="2" t="n"/>
+      <c r="H279" s="2" t="n"/>
+      <c r="I279" s="2" t="n"/>
+      <c r="J279" s="2" t="n"/>
+      <c r="K279" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L279" s="2" t="n"/>
+      <c r="M279" s="2" t="n"/>
+      <c r="N279" s="2" t="n"/>
+      <c r="O279" s="2" t="n"/>
+      <c r="P279" s="2" t="n"/>
+      <c r="Q279" s="2" t="n"/>
+      <c r="R279" s="2" t="n"/>
+      <c r="S279" s="2" t="n"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="n"/>
+      <c r="D280" s="2" t="n"/>
+      <c r="E280" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="n"/>
+      <c r="G280" s="2" t="n"/>
+      <c r="H280" s="2" t="n"/>
+      <c r="I280" s="2" t="n"/>
+      <c r="J280" s="2" t="n"/>
+      <c r="K280" s="2" t="n"/>
+      <c r="L280" s="2" t="n"/>
+      <c r="M280" s="2" t="n"/>
+      <c r="N280" s="2" t="n"/>
+      <c r="O280" s="2" t="n"/>
+      <c r="P280" s="2" t="n"/>
+      <c r="Q280" s="2" t="n"/>
+      <c r="R280" s="2" t="n"/>
+      <c r="S280" s="2" t="n"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="n"/>
+      <c r="D281" s="2" t="n"/>
+      <c r="E281" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F281" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G281" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H281" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I281" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J281" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K281" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L281" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
+      <c r="M281" s="2" t="n"/>
+      <c r="N281" s="2" t="n"/>
+      <c r="O281" s="2" t="n"/>
+      <c r="P281" s="2" t="n"/>
+      <c r="Q281" s="2" t="n"/>
+      <c r="R281" s="2" t="n"/>
+      <c r="S281" s="2" t="n"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="n"/>
+      <c r="D282" s="2" t="n"/>
+      <c r="E282" s="2" t="n"/>
+      <c r="F282" s="2" t="n"/>
+      <c r="G282" s="2" t="n"/>
+      <c r="H282" s="2" t="n"/>
+      <c r="I282" s="2" t="n"/>
+      <c r="J282" s="2" t="n"/>
+      <c r="K282" s="2" t="n"/>
+      <c r="L282" s="2" t="n"/>
+      <c r="M282" s="2" t="n"/>
+      <c r="N282" s="2" t="n"/>
+      <c r="O282" s="2" t="n"/>
+      <c r="P282" s="2" t="n"/>
+      <c r="Q282" s="2" t="n"/>
+      <c r="R282" s="2" t="n"/>
+      <c r="S282" s="2" t="n"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B283" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C283" s="2" t="n"/>
+      <c r="D283" s="2" t="n"/>
+      <c r="E283" s="2" t="n"/>
+      <c r="F283" s="2" t="n"/>
+      <c r="G283" s="2" t="n"/>
+      <c r="H283" s="2" t="n"/>
+      <c r="I283" s="2" t="n"/>
+      <c r="J283" s="2" t="n"/>
+      <c r="K283" s="2" t="n"/>
+      <c r="L283" s="2" t="n"/>
+      <c r="M283" s="2" t="n"/>
+      <c r="N283" s="2" t="n"/>
+      <c r="O283" s="2" t="n"/>
+      <c r="P283" s="2" t="n"/>
+      <c r="Q283" s="2" t="n"/>
+      <c r="R283" s="2" t="n"/>
+      <c r="S283" s="2" t="n"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="n"/>
+      <c r="D284" s="2" t="n"/>
+      <c r="E284" s="2" t="n"/>
+      <c r="F284" s="2" t="n"/>
+      <c r="G284" s="2" t="n"/>
+      <c r="H284" s="2" t="n"/>
+      <c r="I284" s="2" t="n"/>
+      <c r="J284" s="2" t="n"/>
+      <c r="K284" s="2" t="n"/>
+      <c r="L284" s="2" t="n"/>
+      <c r="M284" s="2" t="n"/>
+      <c r="N284" s="2" t="n"/>
+      <c r="O284" s="2" t="n"/>
+      <c r="P284" s="2" t="n"/>
+      <c r="Q284" s="2" t="n"/>
+      <c r="R284" s="2" t="n"/>
+      <c r="S284" s="2" t="n"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B285" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C285" s="2" t="n"/>
+      <c r="D285" s="2" t="n"/>
+      <c r="E285" s="2" t="n"/>
+      <c r="F285" s="2" t="n"/>
+      <c r="G285" s="2" t="n"/>
+      <c r="H285" s="2" t="n"/>
+      <c r="I285" s="2" t="n"/>
+      <c r="J285" s="2" t="n"/>
+      <c r="K285" s="2" t="n"/>
+      <c r="L285" s="2" t="n"/>
+      <c r="M285" s="2" t="n"/>
+      <c r="N285" s="2" t="n"/>
+      <c r="O285" s="2" t="n"/>
+      <c r="P285" s="2" t="n"/>
+      <c r="Q285" s="2" t="n"/>
+      <c r="R285" s="2" t="n"/>
+      <c r="S285" s="2" t="n"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="n"/>
+      <c r="D286" s="2" t="n"/>
+      <c r="E286" s="2" t="n"/>
+      <c r="F286" s="2" t="n"/>
+      <c r="G286" s="2" t="n"/>
+      <c r="H286" s="2" t="n"/>
+      <c r="I286" s="2" t="n"/>
+      <c r="J286" s="2" t="n"/>
+      <c r="K286" s="2" t="n"/>
+      <c r="L286" s="2" t="n"/>
+      <c r="M286" s="2" t="n"/>
+      <c r="N286" s="2" t="n"/>
+      <c r="O286" s="2" t="n"/>
+      <c r="P286" s="2" t="n"/>
+      <c r="Q286" s="2" t="n"/>
+      <c r="R286" s="2" t="n"/>
+      <c r="S286" s="2" t="n"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="n"/>
+      <c r="D287" s="2" t="n"/>
+      <c r="E287" s="2" t="n"/>
+      <c r="F287" s="2" t="n"/>
+      <c r="G287" s="2" t="n"/>
+      <c r="H287" s="2" t="n"/>
+      <c r="I287" s="2" t="n"/>
+      <c r="J287" s="2" t="n"/>
+      <c r="K287" s="2" t="n"/>
+      <c r="L287" s="2" t="n"/>
+      <c r="M287" s="2" t="n"/>
+      <c r="N287" s="2" t="n"/>
+      <c r="O287" s="2" t="n"/>
+      <c r="P287" s="2" t="n"/>
+      <c r="Q287" s="2" t="n"/>
+      <c r="R287" s="2" t="n"/>
+      <c r="S287" s="2" t="n"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="n"/>
+      <c r="D288" s="2" t="n"/>
+      <c r="E288" s="2" t="n"/>
+      <c r="F288" s="2" t="n"/>
+      <c r="G288" s="2" t="n"/>
+      <c r="H288" s="2" t="n"/>
+      <c r="I288" s="2" t="n"/>
+      <c r="J288" s="2" t="n"/>
+      <c r="K288" s="2" t="n"/>
+      <c r="L288" s="2" t="n"/>
+      <c r="M288" s="2" t="n"/>
+      <c r="N288" s="2" t="n"/>
+      <c r="O288" s="2" t="n"/>
+      <c r="P288" s="2" t="n"/>
+      <c r="Q288" s="2" t="n"/>
+      <c r="R288" s="2" t="n"/>
+      <c r="S288" s="2" t="n"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="n"/>
+      <c r="D289" s="2" t="n"/>
+      <c r="E289" s="2" t="n"/>
+      <c r="F289" s="2" t="n"/>
+      <c r="G289" s="2" t="n"/>
+      <c r="H289" s="2" t="n"/>
+      <c r="I289" s="2" t="n"/>
+      <c r="J289" s="2" t="n"/>
+      <c r="K289" s="2" t="n"/>
+      <c r="L289" s="2" t="n"/>
+      <c r="M289" s="2" t="n"/>
+      <c r="N289" s="2" t="n"/>
+      <c r="O289" s="2" t="n"/>
+      <c r="P289" s="2" t="n"/>
+      <c r="Q289" s="2" t="n"/>
+      <c r="R289" s="2" t="n"/>
+      <c r="S289" s="2" t="n"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="n"/>
+      <c r="D290" s="2" t="n"/>
+      <c r="E290" s="2" t="n"/>
+      <c r="F290" s="2" t="n"/>
+      <c r="G290" s="2" t="n"/>
+      <c r="H290" s="2" t="n"/>
+      <c r="I290" s="2" t="n"/>
+      <c r="J290" s="2" t="n"/>
+      <c r="K290" s="2" t="n"/>
+      <c r="L290" s="2" t="n"/>
+      <c r="M290" s="2" t="n"/>
+      <c r="N290" s="2" t="n"/>
+      <c r="O290" s="2" t="n"/>
+      <c r="P290" s="2" t="n"/>
+      <c r="Q290" s="2" t="n"/>
+      <c r="R290" s="2" t="n"/>
+      <c r="S290" s="2" t="n"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C291" s="2" t="n"/>
+      <c r="D291" s="2" t="n"/>
+      <c r="E291" s="2" t="n"/>
+      <c r="F291" s="2" t="n"/>
+      <c r="G291" s="2" t="n"/>
+      <c r="H291" s="2" t="n"/>
+      <c r="I291" s="2" t="n"/>
+      <c r="J291" s="2" t="n"/>
+      <c r="K291" s="2" t="n"/>
+      <c r="L291" s="2" t="n"/>
+      <c r="M291" s="2" t="n"/>
+      <c r="N291" s="2" t="n"/>
+      <c r="O291" s="2" t="n"/>
+      <c r="P291" s="2" t="n"/>
+      <c r="Q291" s="2" t="n"/>
+      <c r="R291" s="2" t="n"/>
+      <c r="S291" s="2" t="n"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="n"/>
+      <c r="D292" s="2" t="n"/>
+      <c r="E292" s="2" t="n"/>
+      <c r="F292" s="2" t="n"/>
+      <c r="G292" s="2" t="n"/>
+      <c r="H292" s="2" t="n"/>
+      <c r="I292" s="2" t="n"/>
+      <c r="J292" s="2" t="n"/>
+      <c r="K292" s="2" t="n"/>
+      <c r="L292" s="2" t="n"/>
+      <c r="M292" s="2" t="n"/>
+      <c r="N292" s="2" t="n"/>
+      <c r="O292" s="2" t="n"/>
+      <c r="P292" s="2" t="n"/>
+      <c r="Q292" s="2" t="n"/>
+      <c r="R292" s="2" t="n"/>
+      <c r="S292" s="2" t="n"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B293" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C293" s="2" t="n"/>
+      <c r="D293" s="2" t="n"/>
+      <c r="E293" s="2" t="n"/>
+      <c r="F293" s="2" t="n"/>
+      <c r="G293" s="2" t="n"/>
+      <c r="H293" s="2" t="n"/>
+      <c r="I293" s="2" t="n"/>
+      <c r="J293" s="2" t="n"/>
+      <c r="K293" s="2" t="n"/>
+      <c r="L293" s="2" t="n"/>
+      <c r="M293" s="2" t="n"/>
+      <c r="N293" s="2" t="n"/>
+      <c r="O293" s="2" t="n"/>
+      <c r="P293" s="2" t="n"/>
+      <c r="Q293" s="2" t="n"/>
+      <c r="R293" s="2" t="n"/>
+      <c r="S293" s="2" t="n"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n"/>
+      <c r="C294" s="2" t="n"/>
+      <c r="D294" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E294" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F294" s="2" t="n"/>
+      <c r="G294" s="2" t="n"/>
+      <c r="H294" s="2" t="n"/>
+      <c r="I294" s="2" t="n"/>
+      <c r="J294" s="2" t="n"/>
+      <c r="K294" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L294" s="3" t="n"/>
+      <c r="M294" s="2" t="n"/>
+      <c r="N294" s="2" t="n"/>
+      <c r="O294" s="2" t="n"/>
+      <c r="P294" s="2" t="n"/>
+      <c r="Q294" s="2" t="n"/>
+      <c r="R294" s="2" t="n"/>
+      <c r="S294" s="2" t="n"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="inlineStr">
+        <is>
+          <t># 특이사항</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n"/>
+      <c r="C295" s="2" t="n"/>
+      <c r="D295" s="2" t="n"/>
+      <c r="E295" s="2" t="n"/>
+      <c r="F295" s="2" t="n"/>
+      <c r="G295" s="2" t="n"/>
+      <c r="H295" s="2" t="n"/>
+      <c r="I295" s="2" t="n"/>
+      <c r="J295" s="2" t="n"/>
+      <c r="K295" s="2" t="n"/>
+      <c r="L295" s="2" t="n"/>
+      <c r="M295" s="2" t="n"/>
+      <c r="N295" s="2" t="n"/>
+      <c r="O295" s="2" t="n"/>
+      <c r="P295" s="2" t="n"/>
+      <c r="Q295" s="2" t="n"/>
+      <c r="R295" s="2" t="n"/>
+      <c r="S295" s="2" t="n"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n"/>
+      <c r="B296" s="2" t="n"/>
+      <c r="C296" s="2" t="n"/>
+      <c r="D296" s="2" t="n"/>
+      <c r="E296" s="2" t="n"/>
+      <c r="F296" s="2" t="n"/>
+      <c r="G296" s="2" t="n"/>
+      <c r="H296" s="2" t="n"/>
+      <c r="I296" s="2" t="n"/>
+      <c r="J296" s="2" t="n"/>
+      <c r="K296" s="2" t="n"/>
+      <c r="L296" s="2" t="n"/>
+      <c r="M296" s="2" t="n"/>
+      <c r="N296" s="2" t="n"/>
+      <c r="O296" s="2" t="n"/>
+      <c r="P296" s="2" t="n"/>
+      <c r="Q296" s="2" t="n"/>
+      <c r="R296" s="2" t="n"/>
+      <c r="S296" s="2" t="n"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n"/>
+      <c r="B297" s="2" t="n"/>
+      <c r="C297" s="2" t="n"/>
+      <c r="D297" s="2" t="n"/>
+      <c r="E297" s="2" t="n"/>
+      <c r="F297" s="2" t="n"/>
+      <c r="G297" s="2" t="n"/>
+      <c r="H297" s="2" t="n"/>
+      <c r="I297" s="2" t="n"/>
+      <c r="J297" s="2" t="n"/>
+      <c r="K297" s="2" t="n"/>
+      <c r="L297" s="2" t="n"/>
+      <c r="M297" s="2" t="n"/>
+      <c r="N297" s="2" t="n"/>
+      <c r="O297" s="2" t="n"/>
+      <c r="P297" s="2" t="n"/>
+      <c r="Q297" s="2" t="n"/>
+      <c r="R297" s="2" t="n"/>
+      <c r="S297" s="2" t="n"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n"/>
+      <c r="B298" s="2" t="n"/>
+      <c r="C298" s="2" t="n"/>
+      <c r="D298" s="2" t="n"/>
+      <c r="E298" s="2" t="n"/>
+      <c r="F298" s="2" t="n"/>
+      <c r="G298" s="2" t="n"/>
+      <c r="H298" s="2" t="n"/>
+      <c r="I298" s="2" t="n"/>
+      <c r="J298" s="2" t="n"/>
+      <c r="K298" s="2" t="n"/>
+      <c r="L298" s="2" t="n"/>
+      <c r="M298" s="2" t="n"/>
+      <c r="N298" s="2" t="n"/>
+      <c r="O298" s="2" t="n"/>
+      <c r="P298" s="2" t="n"/>
+      <c r="Q298" s="2" t="n"/>
+      <c r="R298" s="2" t="n"/>
+      <c r="S298" s="2" t="n"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n"/>
+      <c r="B299" s="2" t="n"/>
+      <c r="C299" s="2" t="n"/>
+      <c r="D299" s="2" t="n"/>
+      <c r="E299" s="2" t="n"/>
+      <c r="F299" s="2" t="n"/>
+      <c r="G299" s="2" t="n"/>
+      <c r="H299" s="2" t="n"/>
+      <c r="I299" s="2" t="n"/>
+      <c r="J299" s="2" t="n"/>
+      <c r="K299" s="2" t="n"/>
+      <c r="L299" s="2" t="n"/>
+      <c r="M299" s="2" t="n"/>
+      <c r="N299" s="2" t="n"/>
+      <c r="O299" s="2" t="n"/>
+      <c r="P299" s="2" t="n"/>
+      <c r="Q299" s="2" t="n"/>
+      <c r="R299" s="2" t="n"/>
+      <c r="S299" s="2" t="n"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n"/>
+      <c r="B300" s="2" t="n"/>
+      <c r="C300" s="2" t="n"/>
+      <c r="D300" s="2" t="n"/>
+      <c r="E300" s="2" t="n"/>
+      <c r="F300" s="2" t="n"/>
+      <c r="G300" s="2" t="n"/>
+      <c r="H300" s="2" t="n"/>
+      <c r="I300" s="2" t="n"/>
+      <c r="J300" s="2" t="n"/>
+      <c r="K300" s="2" t="n"/>
+      <c r="L300" s="2" t="n"/>
+      <c r="M300" s="2" t="n"/>
+      <c r="N300" s="2" t="n"/>
+      <c r="O300" s="2" t="n"/>
+      <c r="P300" s="2" t="n"/>
+      <c r="Q300" s="2" t="n"/>
+      <c r="R300" s="2" t="n"/>
+      <c r="S300" s="2" t="n"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>작 업 일 지</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n"/>
+      <c r="C301" s="2" t="n"/>
+      <c r="D301" s="2" t="n"/>
+      <c r="E301" s="2" t="n"/>
+      <c r="F301" s="2" t="n"/>
+      <c r="G301" s="2" t="n"/>
+      <c r="H301" s="2" t="n"/>
+      <c r="I301" s="2" t="n"/>
+      <c r="J301" s="2" t="n"/>
+      <c r="K301" s="2" t="n"/>
+      <c r="L301" s="2" t="n"/>
+      <c r="M301" s="2" t="n"/>
+      <c r="N301" s="2" t="n"/>
+      <c r="O301" s="2" t="n"/>
+      <c r="P301" s="2" t="n"/>
+      <c r="Q301" s="2" t="n"/>
+      <c r="R301" s="2" t="n"/>
+      <c r="S301" s="2" t="n"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>현장명 : 마곡</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n"/>
+      <c r="C302" s="2" t="n"/>
+      <c r="D302" s="2" t="n"/>
+      <c r="E302" s="2" t="n"/>
+      <c r="F302" s="2" t="n"/>
+      <c r="G302" s="2" t="n"/>
+      <c r="H302" s="2" t="n"/>
+      <c r="I302" s="2" t="n"/>
+      <c r="J302" s="2" t="n"/>
+      <c r="K302" s="2" t="n"/>
+      <c r="L302" s="2" t="n"/>
+      <c r="M302" s="2" t="n"/>
+      <c r="N302" s="2" t="n"/>
+      <c r="O302" s="2" t="n"/>
+      <c r="P302" s="2" t="n"/>
+      <c r="Q302" s="2" t="n"/>
+      <c r="R302" s="2" t="n"/>
+      <c r="S302" s="2" t="n"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="inlineStr">
+        <is>
+          <t>날짜 : 2025-01-03</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n"/>
+      <c r="C303" s="2" t="n"/>
+      <c r="D303" s="2" t="n"/>
+      <c r="E303" s="2" t="n"/>
+      <c r="F303" s="2" t="n"/>
+      <c r="G303" s="2" t="n"/>
+      <c r="H303" s="2" t="n"/>
+      <c r="I303" s="2" t="n"/>
+      <c r="J303" s="2" t="n"/>
+      <c r="K303" s="2" t="n"/>
+      <c r="L303" s="2" t="n"/>
+      <c r="M303" s="2" t="n"/>
+      <c r="N303" s="2" t="n"/>
+      <c r="O303" s="2" t="n"/>
+      <c r="P303" s="2" t="n"/>
+      <c r="Q303" s="2" t="n"/>
+      <c r="R303" s="2" t="n"/>
+      <c r="S303" s="2" t="n"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B304" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="C304" s="3" t="inlineStr">
+        <is>
+          <t>성명</t>
+        </is>
+      </c>
+      <c r="D304" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="inlineStr">
+        <is>
+          <t># 주간작업</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="n"/>
+      <c r="G304" s="2" t="n"/>
+      <c r="H304" s="2" t="n"/>
+      <c r="I304" s="2" t="n"/>
+      <c r="J304" s="2" t="n"/>
+      <c r="K304" s="2" t="n"/>
+      <c r="L304" s="2" t="n"/>
+      <c r="M304" s="2" t="n"/>
+      <c r="N304" s="2" t="n"/>
+      <c r="O304" s="2" t="n"/>
+      <c r="P304" s="2" t="n"/>
+      <c r="Q304" s="2" t="n"/>
+      <c r="R304" s="2" t="n"/>
+      <c r="S304" s="2" t="n"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B305" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C305" s="2" t="inlineStr">
+        <is>
+          <t>김서준</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E305" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F305" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G305" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H305" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I305" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J305" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K305" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L305" s="3" t="inlineStr">
+        <is>
+          <t>작업명단</t>
+        </is>
+      </c>
+      <c r="M305" s="3" t="n"/>
+      <c r="N305" s="3" t="n"/>
+      <c r="O305" s="3" t="n"/>
+      <c r="P305" s="3" t="n"/>
+      <c r="Q305" s="3" t="n"/>
+      <c r="R305" s="3" t="n"/>
+      <c r="S305" s="3" t="n"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="inlineStr">
+        <is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>코어벽체</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="inlineStr">
+        <is>
+          <t>알폼자재양중작업</t>
+        </is>
+      </c>
+      <c r="J306" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="K306" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L306" s="2" t="n"/>
+      <c r="M306" s="2" t="n"/>
+      <c r="N306" s="2" t="n"/>
+      <c r="O306" s="2" t="n"/>
+      <c r="P306" s="2" t="n"/>
+      <c r="Q306" s="2" t="n"/>
+      <c r="R306" s="2" t="n"/>
+      <c r="S306" s="2" t="n"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B307" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t>노하람</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n"/>
+      <c r="F307" s="2" t="n"/>
+      <c r="G307" s="2" t="n"/>
+      <c r="H307" s="2" t="n"/>
+      <c r="I307" s="2" t="n"/>
+      <c r="J307" s="2" t="n"/>
+      <c r="K307" s="2" t="n"/>
+      <c r="L307" s="2" t="n"/>
+      <c r="M307" s="2" t="n"/>
+      <c r="N307" s="2" t="n"/>
+      <c r="O307" s="2" t="n"/>
+      <c r="P307" s="2" t="n"/>
+      <c r="Q307" s="2" t="n"/>
+      <c r="R307" s="2" t="n"/>
+      <c r="S307" s="2" t="n"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C308" s="2" t="n"/>
+      <c r="D308" s="2" t="n"/>
+      <c r="E308" s="2" t="n"/>
+      <c r="F308" s="2" t="n"/>
+      <c r="G308" s="2" t="n"/>
+      <c r="H308" s="2" t="n"/>
+      <c r="I308" s="2" t="n"/>
+      <c r="J308" s="2" t="n"/>
+      <c r="K308" s="2" t="n"/>
+      <c r="L308" s="2" t="n"/>
+      <c r="M308" s="2" t="n"/>
+      <c r="N308" s="2" t="n"/>
+      <c r="O308" s="2" t="n"/>
+      <c r="P308" s="2" t="n"/>
+      <c r="Q308" s="2" t="n"/>
+      <c r="R308" s="2" t="n"/>
+      <c r="S308" s="2" t="n"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B309" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C309" s="2" t="n"/>
+      <c r="D309" s="2" t="n"/>
+      <c r="E309" s="2" t="n"/>
+      <c r="F309" s="2" t="n"/>
+      <c r="G309" s="2" t="n"/>
+      <c r="H309" s="2" t="n"/>
+      <c r="I309" s="2" t="n"/>
+      <c r="J309" s="2" t="n"/>
+      <c r="K309" s="2" t="n"/>
+      <c r="L309" s="2" t="n"/>
+      <c r="M309" s="2" t="n"/>
+      <c r="N309" s="2" t="n"/>
+      <c r="O309" s="2" t="n"/>
+      <c r="P309" s="2" t="n"/>
+      <c r="Q309" s="2" t="n"/>
+      <c r="R309" s="2" t="n"/>
+      <c r="S309" s="2" t="n"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="n"/>
+      <c r="D310" s="2" t="n"/>
+      <c r="E310" s="2" t="n"/>
+      <c r="F310" s="2" t="n"/>
+      <c r="G310" s="2" t="n"/>
+      <c r="H310" s="2" t="n"/>
+      <c r="I310" s="2" t="n"/>
+      <c r="J310" s="2" t="n"/>
+      <c r="K310" s="2" t="n"/>
+      <c r="L310" s="2" t="n"/>
+      <c r="M310" s="2" t="n"/>
+      <c r="N310" s="2" t="n"/>
+      <c r="O310" s="2" t="n"/>
+      <c r="P310" s="2" t="n"/>
+      <c r="Q310" s="2" t="n"/>
+      <c r="R310" s="2" t="n"/>
+      <c r="S310" s="2" t="n"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="n"/>
+      <c r="D311" s="2" t="n"/>
+      <c r="E311" s="2" t="n"/>
+      <c r="F311" s="2" t="n"/>
+      <c r="G311" s="2" t="n"/>
+      <c r="H311" s="2" t="n"/>
+      <c r="I311" s="2" t="n"/>
+      <c r="J311" s="2" t="n"/>
+      <c r="K311" s="2" t="n"/>
+      <c r="L311" s="2" t="n"/>
+      <c r="M311" s="2" t="n"/>
+      <c r="N311" s="2" t="n"/>
+      <c r="O311" s="2" t="n"/>
+      <c r="P311" s="2" t="n"/>
+      <c r="Q311" s="2" t="n"/>
+      <c r="R311" s="2" t="n"/>
+      <c r="S311" s="2" t="n"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="n"/>
+      <c r="D312" s="2" t="n"/>
+      <c r="E312" s="2" t="n"/>
+      <c r="F312" s="2" t="n"/>
+      <c r="G312" s="2" t="n"/>
+      <c r="H312" s="2" t="n"/>
+      <c r="I312" s="2" t="n"/>
+      <c r="J312" s="2" t="n"/>
+      <c r="K312" s="2" t="n"/>
+      <c r="L312" s="2" t="n"/>
+      <c r="M312" s="2" t="n"/>
+      <c r="N312" s="2" t="n"/>
+      <c r="O312" s="2" t="n"/>
+      <c r="P312" s="2" t="n"/>
+      <c r="Q312" s="2" t="n"/>
+      <c r="R312" s="2" t="n"/>
+      <c r="S312" s="2" t="n"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="n"/>
+      <c r="D313" s="2" t="n"/>
+      <c r="E313" s="2" t="n"/>
+      <c r="F313" s="2" t="n"/>
+      <c r="G313" s="2" t="n"/>
+      <c r="H313" s="2" t="n"/>
+      <c r="I313" s="2" t="n"/>
+      <c r="J313" s="2" t="n"/>
+      <c r="K313" s="2" t="n"/>
+      <c r="L313" s="2" t="n"/>
+      <c r="M313" s="2" t="n"/>
+      <c r="N313" s="2" t="n"/>
+      <c r="O313" s="2" t="n"/>
+      <c r="P313" s="2" t="n"/>
+      <c r="Q313" s="2" t="n"/>
+      <c r="R313" s="2" t="n"/>
+      <c r="S313" s="2" t="n"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="n"/>
+      <c r="D314" s="2" t="n"/>
+      <c r="E314" s="2" t="n"/>
+      <c r="F314" s="2" t="n"/>
+      <c r="G314" s="2" t="n"/>
+      <c r="H314" s="2" t="n"/>
+      <c r="I314" s="2" t="n"/>
+      <c r="J314" s="2" t="n"/>
+      <c r="K314" s="2" t="n"/>
+      <c r="L314" s="2" t="n"/>
+      <c r="M314" s="2" t="n"/>
+      <c r="N314" s="2" t="n"/>
+      <c r="O314" s="2" t="n"/>
+      <c r="P314" s="2" t="n"/>
+      <c r="Q314" s="2" t="n"/>
+      <c r="R314" s="2" t="n"/>
+      <c r="S314" s="2" t="n"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B315" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C315" s="2" t="n"/>
+      <c r="D315" s="2" t="n"/>
+      <c r="E315" s="2" t="n"/>
+      <c r="F315" s="2" t="n"/>
+      <c r="G315" s="2" t="n"/>
+      <c r="H315" s="2" t="n"/>
+      <c r="I315" s="2" t="n"/>
+      <c r="J315" s="2" t="n"/>
+      <c r="K315" s="2" t="n"/>
+      <c r="L315" s="2" t="n"/>
+      <c r="M315" s="2" t="n"/>
+      <c r="N315" s="2" t="n"/>
+      <c r="O315" s="2" t="n"/>
+      <c r="P315" s="2" t="n"/>
+      <c r="Q315" s="2" t="n"/>
+      <c r="R315" s="2" t="n"/>
+      <c r="S315" s="2" t="n"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="n"/>
+      <c r="D316" s="2" t="n"/>
+      <c r="E316" s="2" t="n"/>
+      <c r="F316" s="2" t="n"/>
+      <c r="G316" s="2" t="n"/>
+      <c r="H316" s="2" t="n"/>
+      <c r="I316" s="2" t="n"/>
+      <c r="J316" s="2" t="n"/>
+      <c r="K316" s="2" t="n"/>
+      <c r="L316" s="2" t="n"/>
+      <c r="M316" s="2" t="n"/>
+      <c r="N316" s="2" t="n"/>
+      <c r="O316" s="2" t="n"/>
+      <c r="P316" s="2" t="n"/>
+      <c r="Q316" s="2" t="n"/>
+      <c r="R316" s="2" t="n"/>
+      <c r="S316" s="2" t="n"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B317" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C317" s="2" t="n"/>
+      <c r="D317" s="2" t="n"/>
+      <c r="E317" s="2" t="n"/>
+      <c r="F317" s="2" t="n"/>
+      <c r="G317" s="2" t="n"/>
+      <c r="H317" s="2" t="n"/>
+      <c r="I317" s="2" t="n"/>
+      <c r="J317" s="2" t="n"/>
+      <c r="K317" s="2" t="n"/>
+      <c r="L317" s="2" t="n"/>
+      <c r="M317" s="2" t="n"/>
+      <c r="N317" s="2" t="n"/>
+      <c r="O317" s="2" t="n"/>
+      <c r="P317" s="2" t="n"/>
+      <c r="Q317" s="2" t="n"/>
+      <c r="R317" s="2" t="n"/>
+      <c r="S317" s="2" t="n"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="n"/>
+      <c r="D318" s="2" t="n"/>
+      <c r="E318" s="2" t="n"/>
+      <c r="F318" s="2" t="n"/>
+      <c r="G318" s="2" t="n"/>
+      <c r="H318" s="2" t="n"/>
+      <c r="I318" s="2" t="n"/>
+      <c r="J318" s="2" t="n"/>
+      <c r="K318" s="2" t="n"/>
+      <c r="L318" s="2" t="n"/>
+      <c r="M318" s="2" t="n"/>
+      <c r="N318" s="2" t="n"/>
+      <c r="O318" s="2" t="n"/>
+      <c r="P318" s="2" t="n"/>
+      <c r="Q318" s="2" t="n"/>
+      <c r="R318" s="2" t="n"/>
+      <c r="S318" s="2" t="n"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="n"/>
+      <c r="D319" s="2" t="n"/>
+      <c r="E319" s="2" t="n"/>
+      <c r="F319" s="2" t="n"/>
+      <c r="G319" s="2" t="n"/>
+      <c r="H319" s="2" t="n"/>
+      <c r="I319" s="2" t="n"/>
+      <c r="J319" s="2" t="n"/>
+      <c r="K319" s="2" t="n"/>
+      <c r="L319" s="2" t="n"/>
+      <c r="M319" s="2" t="n"/>
+      <c r="N319" s="2" t="n"/>
+      <c r="O319" s="2" t="n"/>
+      <c r="P319" s="2" t="n"/>
+      <c r="Q319" s="2" t="n"/>
+      <c r="R319" s="2" t="n"/>
+      <c r="S319" s="2" t="n"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="n"/>
+      <c r="D320" s="2" t="n"/>
+      <c r="E320" s="2" t="n"/>
+      <c r="F320" s="2" t="n"/>
+      <c r="G320" s="2" t="n"/>
+      <c r="H320" s="2" t="n"/>
+      <c r="I320" s="2" t="n"/>
+      <c r="J320" s="2" t="n"/>
+      <c r="K320" s="2" t="n"/>
+      <c r="L320" s="2" t="n"/>
+      <c r="M320" s="2" t="n"/>
+      <c r="N320" s="2" t="n"/>
+      <c r="O320" s="2" t="n"/>
+      <c r="P320" s="2" t="n"/>
+      <c r="Q320" s="2" t="n"/>
+      <c r="R320" s="2" t="n"/>
+      <c r="S320" s="2" t="n"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="n"/>
+      <c r="D321" s="2" t="n"/>
+      <c r="E321" s="2" t="n"/>
+      <c r="F321" s="2" t="n"/>
+      <c r="G321" s="2" t="n"/>
+      <c r="H321" s="2" t="n"/>
+      <c r="I321" s="2" t="n"/>
+      <c r="J321" s="2" t="n"/>
+      <c r="K321" s="2" t="n"/>
+      <c r="L321" s="2" t="n"/>
+      <c r="M321" s="2" t="n"/>
+      <c r="N321" s="2" t="n"/>
+      <c r="O321" s="2" t="n"/>
+      <c r="P321" s="2" t="n"/>
+      <c r="Q321" s="2" t="n"/>
+      <c r="R321" s="2" t="n"/>
+      <c r="S321" s="2" t="n"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="n"/>
+      <c r="D322" s="2" t="n"/>
+      <c r="E322" s="2" t="n"/>
+      <c r="F322" s="2" t="n"/>
+      <c r="G322" s="2" t="n"/>
+      <c r="H322" s="2" t="n"/>
+      <c r="I322" s="2" t="n"/>
+      <c r="J322" s="2" t="n"/>
+      <c r="K322" s="2" t="n"/>
+      <c r="L322" s="2" t="n"/>
+      <c r="M322" s="2" t="n"/>
+      <c r="N322" s="2" t="n"/>
+      <c r="O322" s="2" t="n"/>
+      <c r="P322" s="2" t="n"/>
+      <c r="Q322" s="2" t="n"/>
+      <c r="R322" s="2" t="n"/>
+      <c r="S322" s="2" t="n"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="n"/>
+      <c r="D323" s="2" t="n"/>
+      <c r="E323" s="2" t="n"/>
+      <c r="F323" s="2" t="n"/>
+      <c r="G323" s="2" t="n"/>
+      <c r="H323" s="2" t="n"/>
+      <c r="I323" s="2" t="n"/>
+      <c r="J323" s="2" t="n"/>
+      <c r="K323" s="2" t="n"/>
+      <c r="L323" s="2" t="n"/>
+      <c r="M323" s="2" t="n"/>
+      <c r="N323" s="2" t="n"/>
+      <c r="O323" s="2" t="n"/>
+      <c r="P323" s="2" t="n"/>
+      <c r="Q323" s="2" t="n"/>
+      <c r="R323" s="2" t="n"/>
+      <c r="S323" s="2" t="n"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="n"/>
+      <c r="D324" s="2" t="n"/>
+      <c r="E324" s="2" t="n"/>
+      <c r="F324" s="2" t="n"/>
+      <c r="G324" s="2" t="n"/>
+      <c r="H324" s="2" t="n"/>
+      <c r="I324" s="2" t="n"/>
+      <c r="J324" s="2" t="n"/>
+      <c r="K324" s="2" t="n"/>
+      <c r="L324" s="2" t="n"/>
+      <c r="M324" s="2" t="n"/>
+      <c r="N324" s="2" t="n"/>
+      <c r="O324" s="2" t="n"/>
+      <c r="P324" s="2" t="n"/>
+      <c r="Q324" s="2" t="n"/>
+      <c r="R324" s="2" t="n"/>
+      <c r="S324" s="2" t="n"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="n"/>
+      <c r="D325" s="2" t="n"/>
+      <c r="E325" s="2" t="n"/>
+      <c r="F325" s="2" t="n"/>
+      <c r="G325" s="2" t="n"/>
+      <c r="H325" s="2" t="n"/>
+      <c r="I325" s="2" t="n"/>
+      <c r="J325" s="2" t="n"/>
+      <c r="K325" s="2" t="n"/>
+      <c r="L325" s="2" t="n"/>
+      <c r="M325" s="2" t="n"/>
+      <c r="N325" s="2" t="n"/>
+      <c r="O325" s="2" t="n"/>
+      <c r="P325" s="2" t="n"/>
+      <c r="Q325" s="2" t="n"/>
+      <c r="R325" s="2" t="n"/>
+      <c r="S325" s="2" t="n"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="n"/>
+      <c r="D326" s="2" t="n"/>
+      <c r="E326" s="2" t="n"/>
+      <c r="F326" s="2" t="n"/>
+      <c r="G326" s="2" t="n"/>
+      <c r="H326" s="2" t="n"/>
+      <c r="I326" s="2" t="n"/>
+      <c r="J326" s="2" t="n"/>
+      <c r="K326" s="2" t="n"/>
+      <c r="L326" s="2" t="n"/>
+      <c r="M326" s="2" t="n"/>
+      <c r="N326" s="2" t="n"/>
+      <c r="O326" s="2" t="n"/>
+      <c r="P326" s="2" t="n"/>
+      <c r="Q326" s="2" t="n"/>
+      <c r="R326" s="2" t="n"/>
+      <c r="S326" s="2" t="n"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="n"/>
+      <c r="D327" s="2" t="n"/>
+      <c r="E327" s="2" t="n"/>
+      <c r="F327" s="2" t="n"/>
+      <c r="G327" s="2" t="n"/>
+      <c r="H327" s="2" t="n"/>
+      <c r="I327" s="2" t="n"/>
+      <c r="J327" s="2" t="n"/>
+      <c r="K327" s="2" t="n"/>
+      <c r="L327" s="2" t="n"/>
+      <c r="M327" s="2" t="n"/>
+      <c r="N327" s="2" t="n"/>
+      <c r="O327" s="2" t="n"/>
+      <c r="P327" s="2" t="n"/>
+      <c r="Q327" s="2" t="n"/>
+      <c r="R327" s="2" t="n"/>
+      <c r="S327" s="2" t="n"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="n"/>
+      <c r="D328" s="2" t="n"/>
+      <c r="E328" s="2" t="n"/>
+      <c r="F328" s="2" t="n"/>
+      <c r="G328" s="2" t="n"/>
+      <c r="H328" s="2" t="n"/>
+      <c r="I328" s="2" t="n"/>
+      <c r="J328" s="2" t="n"/>
+      <c r="K328" s="2" t="n"/>
+      <c r="L328" s="2" t="n"/>
+      <c r="M328" s="2" t="n"/>
+      <c r="N328" s="2" t="n"/>
+      <c r="O328" s="2" t="n"/>
+      <c r="P328" s="2" t="n"/>
+      <c r="Q328" s="2" t="n"/>
+      <c r="R328" s="2" t="n"/>
+      <c r="S328" s="2" t="n"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="n"/>
+      <c r="D329" s="2" t="n"/>
+      <c r="E329" s="2" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F329" s="2" t="n"/>
+      <c r="G329" s="2" t="n"/>
+      <c r="H329" s="2" t="n"/>
+      <c r="I329" s="2" t="n"/>
+      <c r="J329" s="2" t="n"/>
+      <c r="K329" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L329" s="2" t="n"/>
+      <c r="M329" s="2" t="n"/>
+      <c r="N329" s="2" t="n"/>
+      <c r="O329" s="2" t="n"/>
+      <c r="P329" s="2" t="n"/>
+      <c r="Q329" s="2" t="n"/>
+      <c r="R329" s="2" t="n"/>
+      <c r="S329" s="2" t="n"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="n"/>
+      <c r="D330" s="2" t="n"/>
+      <c r="E330" s="3" t="inlineStr">
+        <is>
+          <t># 연장작업</t>
+        </is>
+      </c>
+      <c r="F330" s="2" t="n"/>
+      <c r="G330" s="2" t="n"/>
+      <c r="H330" s="2" t="n"/>
+      <c r="I330" s="2" t="n"/>
+      <c r="J330" s="2" t="n"/>
+      <c r="K330" s="2" t="n"/>
+      <c r="L330" s="2" t="n"/>
+      <c r="M330" s="2" t="n"/>
+      <c r="N330" s="2" t="n"/>
+      <c r="O330" s="2" t="n"/>
+      <c r="P330" s="2" t="n"/>
+      <c r="Q330" s="2" t="n"/>
+      <c r="R330" s="2" t="n"/>
+      <c r="S330" s="2" t="n"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="n"/>
+      <c r="D331" s="2" t="n"/>
+      <c r="E331" s="3" t="inlineStr">
+        <is>
+          <t>구간</t>
+        </is>
+      </c>
+      <c r="F331" s="3" t="inlineStr">
+        <is>
+          <t>층</t>
+        </is>
+      </c>
+      <c r="G331" s="3" t="inlineStr">
+        <is>
+          <t>형태</t>
+        </is>
+      </c>
+      <c r="H331" s="3" t="inlineStr">
+        <is>
+          <t>작업 단가별 분류</t>
+        </is>
+      </c>
+      <c r="I331" s="3" t="inlineStr">
+        <is>
+          <t>작업내용</t>
+        </is>
+      </c>
+      <c r="J331" s="3" t="inlineStr">
+        <is>
+          <t>공종</t>
+        </is>
+      </c>
+      <c r="K331" s="3" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
+      <c r="L331" s="3" t="inlineStr">
+        <is>
+          <t>작업 명단</t>
+        </is>
+      </c>
+      <c r="M331" s="2" t="n"/>
+      <c r="N331" s="2" t="n"/>
+      <c r="O331" s="2" t="n"/>
+      <c r="P331" s="2" t="n"/>
+      <c r="Q331" s="2" t="n"/>
+      <c r="R331" s="2" t="n"/>
+      <c r="S331" s="2" t="n"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="n"/>
+      <c r="D332" s="2" t="n"/>
+      <c r="E332" s="2" t="n"/>
+      <c r="F332" s="2" t="n"/>
+      <c r="G332" s="2" t="n"/>
+      <c r="H332" s="2" t="n"/>
+      <c r="I332" s="2" t="n"/>
+      <c r="J332" s="2" t="n"/>
+      <c r="K332" s="2" t="n"/>
+      <c r="L332" s="2" t="n"/>
+      <c r="M332" s="2" t="n"/>
+      <c r="N332" s="2" t="n"/>
+      <c r="O332" s="2" t="n"/>
+      <c r="P332" s="2" t="n"/>
+      <c r="Q332" s="2" t="n"/>
+      <c r="R332" s="2" t="n"/>
+      <c r="S332" s="2" t="n"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="n"/>
+      <c r="D333" s="2" t="n"/>
+      <c r="E333" s="2" t="n"/>
+      <c r="F333" s="2" t="n"/>
+      <c r="G333" s="2" t="n"/>
+      <c r="H333" s="2" t="n"/>
+      <c r="I333" s="2" t="n"/>
+      <c r="J333" s="2" t="n"/>
+      <c r="K333" s="2" t="n"/>
+      <c r="L333" s="2" t="n"/>
+      <c r="M333" s="2" t="n"/>
+      <c r="N333" s="2" t="n"/>
+      <c r="O333" s="2" t="n"/>
+      <c r="P333" s="2" t="n"/>
+      <c r="Q333" s="2" t="n"/>
+      <c r="R333" s="2" t="n"/>
+      <c r="S333" s="2" t="n"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="n"/>
+      <c r="D334" s="2" t="n"/>
+      <c r="E334" s="2" t="n"/>
+      <c r="F334" s="2" t="n"/>
+      <c r="G334" s="2" t="n"/>
+      <c r="H334" s="2" t="n"/>
+      <c r="I334" s="2" t="n"/>
+      <c r="J334" s="2" t="n"/>
+      <c r="K334" s="2" t="n"/>
+      <c r="L334" s="2" t="n"/>
+      <c r="M334" s="2" t="n"/>
+      <c r="N334" s="2" t="n"/>
+      <c r="O334" s="2" t="n"/>
+      <c r="P334" s="2" t="n"/>
+      <c r="Q334" s="2" t="n"/>
+      <c r="R334" s="2" t="n"/>
+      <c r="S334" s="2" t="n"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="n"/>
+      <c r="D335" s="2" t="n"/>
+      <c r="E335" s="2" t="n"/>
+      <c r="F335" s="2" t="n"/>
+      <c r="G335" s="2" t="n"/>
+      <c r="H335" s="2" t="n"/>
+      <c r="I335" s="2" t="n"/>
+      <c r="J335" s="2" t="n"/>
+      <c r="K335" s="2" t="n"/>
+      <c r="L335" s="2" t="n"/>
+      <c r="M335" s="2" t="n"/>
+      <c r="N335" s="2" t="n"/>
+      <c r="O335" s="2" t="n"/>
+      <c r="P335" s="2" t="n"/>
+      <c r="Q335" s="2" t="n"/>
+      <c r="R335" s="2" t="n"/>
+      <c r="S335" s="2" t="n"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="n"/>
+      <c r="D336" s="2" t="n"/>
+      <c r="E336" s="2" t="n"/>
+      <c r="F336" s="2" t="n"/>
+      <c r="G336" s="2" t="n"/>
+      <c r="H336" s="2" t="n"/>
+      <c r="I336" s="2" t="n"/>
+      <c r="J336" s="2" t="n"/>
+      <c r="K336" s="2" t="n"/>
+      <c r="L336" s="2" t="n"/>
+      <c r="M336" s="2" t="n"/>
+      <c r="N336" s="2" t="n"/>
+      <c r="O336" s="2" t="n"/>
+      <c r="P336" s="2" t="n"/>
+      <c r="Q336" s="2" t="n"/>
+      <c r="R336" s="2" t="n"/>
+      <c r="S336" s="2" t="n"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="n"/>
+      <c r="D337" s="2" t="n"/>
+      <c r="E337" s="2" t="n"/>
+      <c r="F337" s="2" t="n"/>
+      <c r="G337" s="2" t="n"/>
+      <c r="H337" s="2" t="n"/>
+      <c r="I337" s="2" t="n"/>
+      <c r="J337" s="2" t="n"/>
+      <c r="K337" s="2" t="n"/>
+      <c r="L337" s="2" t="n"/>
+      <c r="M337" s="2" t="n"/>
+      <c r="N337" s="2" t="n"/>
+      <c r="O337" s="2" t="n"/>
+      <c r="P337" s="2" t="n"/>
+      <c r="Q337" s="2" t="n"/>
+      <c r="R337" s="2" t="n"/>
+      <c r="S337" s="2" t="n"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C338" s="2" t="n"/>
+      <c r="D338" s="2" t="n"/>
+      <c r="E338" s="2" t="n"/>
+      <c r="F338" s="2" t="n"/>
+      <c r="G338" s="2" t="n"/>
+      <c r="H338" s="2" t="n"/>
+      <c r="I338" s="2" t="n"/>
+      <c r="J338" s="2" t="n"/>
+      <c r="K338" s="2" t="n"/>
+      <c r="L338" s="2" t="n"/>
+      <c r="M338" s="2" t="n"/>
+      <c r="N338" s="2" t="n"/>
+      <c r="O338" s="2" t="n"/>
+      <c r="P338" s="2" t="n"/>
+      <c r="Q338" s="2" t="n"/>
+      <c r="R338" s="2" t="n"/>
+      <c r="S338" s="2" t="n"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="n"/>
+      <c r="D339" s="2" t="n"/>
+      <c r="E339" s="2" t="n"/>
+      <c r="F339" s="2" t="n"/>
+      <c r="G339" s="2" t="n"/>
+      <c r="H339" s="2" t="n"/>
+      <c r="I339" s="2" t="n"/>
+      <c r="J339" s="2" t="n"/>
+      <c r="K339" s="2" t="n"/>
+      <c r="L339" s="2" t="n"/>
+      <c r="M339" s="2" t="n"/>
+      <c r="N339" s="2" t="n"/>
+      <c r="O339" s="2" t="n"/>
+      <c r="P339" s="2" t="n"/>
+      <c r="Q339" s="2" t="n"/>
+      <c r="R339" s="2" t="n"/>
+      <c r="S339" s="2" t="n"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="n"/>
+      <c r="D340" s="2" t="n"/>
+      <c r="E340" s="2" t="n"/>
+      <c r="F340" s="2" t="n"/>
+      <c r="G340" s="2" t="n"/>
+      <c r="H340" s="2" t="n"/>
+      <c r="I340" s="2" t="n"/>
+      <c r="J340" s="2" t="n"/>
+      <c r="K340" s="2" t="n"/>
+      <c r="L340" s="2" t="n"/>
+      <c r="M340" s="2" t="n"/>
+      <c r="N340" s="2" t="n"/>
+      <c r="O340" s="2" t="n"/>
+      <c r="P340" s="2" t="n"/>
+      <c r="Q340" s="2" t="n"/>
+      <c r="R340" s="2" t="n"/>
+      <c r="S340" s="2" t="n"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="n"/>
+      <c r="D341" s="2" t="n"/>
+      <c r="E341" s="2" t="n"/>
+      <c r="F341" s="2" t="n"/>
+      <c r="G341" s="2" t="n"/>
+      <c r="H341" s="2" t="n"/>
+      <c r="I341" s="2" t="n"/>
+      <c r="J341" s="2" t="n"/>
+      <c r="K341" s="2" t="n"/>
+      <c r="L341" s="2" t="n"/>
+      <c r="M341" s="2" t="n"/>
+      <c r="N341" s="2" t="n"/>
+      <c r="O341" s="2" t="n"/>
+      <c r="P341" s="2" t="n"/>
+      <c r="Q341" s="2" t="n"/>
+      <c r="R341" s="2" t="n"/>
+      <c r="S341" s="2" t="n"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="n"/>
+      <c r="D342" s="2" t="n"/>
+      <c r="E342" s="2" t="n"/>
+      <c r="F342" s="2" t="n"/>
+      <c r="G342" s="2" t="n"/>
+      <c r="H342" s="2" t="n"/>
+      <c r="I342" s="2" t="n"/>
+      <c r="J342" s="2" t="n"/>
+      <c r="K342" s="2" t="n"/>
+      <c r="L342" s="2" t="n"/>
+      <c r="M342" s="2" t="n"/>
+      <c r="N342" s="2" t="n"/>
+      <c r="O342" s="2" t="n"/>
+      <c r="P342" s="2" t="n"/>
+      <c r="Q342" s="2" t="n"/>
+      <c r="R342" s="2" t="n"/>
+      <c r="S342" s="2" t="n"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="n"/>
+      <c r="D343" s="2" t="n"/>
+      <c r="E343" s="2" t="n"/>
+      <c r="F343" s="2" t="n"/>
+      <c r="G343" s="2" t="n"/>
+      <c r="H343" s="2" t="n"/>
+      <c r="I343" s="2" t="n"/>
+      <c r="J343" s="2" t="n"/>
+      <c r="K343" s="2" t="n"/>
+      <c r="L343" s="2" t="n"/>
+      <c r="M343" s="2" t="n"/>
+      <c r="N343" s="2" t="n"/>
+      <c r="O343" s="2" t="n"/>
+      <c r="P343" s="2" t="n"/>
+      <c r="Q343" s="2" t="n"/>
+      <c r="R343" s="2" t="n"/>
+      <c r="S343" s="2" t="n"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n"/>
+      <c r="C344" s="2" t="n"/>
+      <c r="D344" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E344" s="3" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="n"/>
+      <c r="G344" s="2" t="n"/>
+      <c r="H344" s="2" t="n"/>
+      <c r="I344" s="2" t="n"/>
+      <c r="J344" s="2" t="n"/>
+      <c r="K344" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L344" s="3" t="n"/>
+      <c r="M344" s="2" t="n"/>
+      <c r="N344" s="2" t="n"/>
+      <c r="O344" s="2" t="n"/>
+      <c r="P344" s="2" t="n"/>
+      <c r="Q344" s="2" t="n"/>
+      <c r="R344" s="2" t="n"/>
+      <c r="S344" s="2" t="n"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="inlineStr">
+        <is>
+          <t># 특이사항</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n"/>
+      <c r="C345" s="2" t="n"/>
+      <c r="D345" s="2" t="n"/>
+      <c r="E345" s="2" t="n"/>
+      <c r="F345" s="2" t="n"/>
+      <c r="G345" s="2" t="n"/>
+      <c r="H345" s="2" t="n"/>
+      <c r="I345" s="2" t="n"/>
+      <c r="J345" s="2" t="n"/>
+      <c r="K345" s="2" t="n"/>
+      <c r="L345" s="2" t="n"/>
+      <c r="M345" s="2" t="n"/>
+      <c r="N345" s="2" t="n"/>
+      <c r="O345" s="2" t="n"/>
+      <c r="P345" s="2" t="n"/>
+      <c r="Q345" s="2" t="n"/>
+      <c r="R345" s="2" t="n"/>
+      <c r="S345" s="2" t="n"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n"/>
+      <c r="B346" s="2" t="n"/>
+      <c r="C346" s="2" t="n"/>
+      <c r="D346" s="2" t="n"/>
+      <c r="E346" s="2" t="n"/>
+      <c r="F346" s="2" t="n"/>
+      <c r="G346" s="2" t="n"/>
+      <c r="H346" s="2" t="n"/>
+      <c r="I346" s="2" t="n"/>
+      <c r="J346" s="2" t="n"/>
+      <c r="K346" s="2" t="n"/>
+      <c r="L346" s="2" t="n"/>
+      <c r="M346" s="2" t="n"/>
+      <c r="N346" s="2" t="n"/>
+      <c r="O346" s="2" t="n"/>
+      <c r="P346" s="2" t="n"/>
+      <c r="Q346" s="2" t="n"/>
+      <c r="R346" s="2" t="n"/>
+      <c r="S346" s="2" t="n"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n"/>
+      <c r="B347" s="2" t="n"/>
+      <c r="C347" s="2" t="n"/>
+      <c r="D347" s="2" t="n"/>
+      <c r="E347" s="2" t="n"/>
+      <c r="F347" s="2" t="n"/>
+      <c r="G347" s="2" t="n"/>
+      <c r="H347" s="2" t="n"/>
+      <c r="I347" s="2" t="n"/>
+      <c r="J347" s="2" t="n"/>
+      <c r="K347" s="2" t="n"/>
+      <c r="L347" s="2" t="n"/>
+      <c r="M347" s="2" t="n"/>
+      <c r="N347" s="2" t="n"/>
+      <c r="O347" s="2" t="n"/>
+      <c r="P347" s="2" t="n"/>
+      <c r="Q347" s="2" t="n"/>
+      <c r="R347" s="2" t="n"/>
+      <c r="S347" s="2" t="n"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n"/>
+      <c r="B348" s="2" t="n"/>
+      <c r="C348" s="2" t="n"/>
+      <c r="D348" s="2" t="n"/>
+      <c r="E348" s="2" t="n"/>
+      <c r="F348" s="2" t="n"/>
+      <c r="G348" s="2" t="n"/>
+      <c r="H348" s="2" t="n"/>
+      <c r="I348" s="2" t="n"/>
+      <c r="J348" s="2" t="n"/>
+      <c r="K348" s="2" t="n"/>
+      <c r="L348" s="2" t="n"/>
+      <c r="M348" s="2" t="n"/>
+      <c r="N348" s="2" t="n"/>
+      <c r="O348" s="2" t="n"/>
+      <c r="P348" s="2" t="n"/>
+      <c r="Q348" s="2" t="n"/>
+      <c r="R348" s="2" t="n"/>
+      <c r="S348" s="2" t="n"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n"/>
+      <c r="B349" s="2" t="n"/>
+      <c r="C349" s="2" t="n"/>
+      <c r="D349" s="2" t="n"/>
+      <c r="E349" s="2" t="n"/>
+      <c r="F349" s="2" t="n"/>
+      <c r="G349" s="2" t="n"/>
+      <c r="H349" s="2" t="n"/>
+      <c r="I349" s="2" t="n"/>
+      <c r="J349" s="2" t="n"/>
+      <c r="K349" s="2" t="n"/>
+      <c r="L349" s="2" t="n"/>
+      <c r="M349" s="2" t="n"/>
+      <c r="N349" s="2" t="n"/>
+      <c r="O349" s="2" t="n"/>
+      <c r="P349" s="2" t="n"/>
+      <c r="Q349" s="2" t="n"/>
+      <c r="R349" s="2" t="n"/>
+      <c r="S349" s="2" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="371">
+    <mergeCell ref="L179:S179"/>
+    <mergeCell ref="A247:S247"/>
+    <mergeCell ref="L337:S337"/>
+    <mergeCell ref="L131:S131"/>
+    <mergeCell ref="L32:S32"/>
+    <mergeCell ref="L208:S208"/>
+    <mergeCell ref="L268:S268"/>
+    <mergeCell ref="L339:S339"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="L210:S210"/>
+    <mergeCell ref="E80:S80"/>
+    <mergeCell ref="L157:S157"/>
+    <mergeCell ref="L284:S284"/>
+    <mergeCell ref="L63:S63"/>
+    <mergeCell ref="L123:S123"/>
+    <mergeCell ref="A196:S196"/>
+    <mergeCell ref="L221:S221"/>
+    <mergeCell ref="L286:S286"/>
+    <mergeCell ref="L261:S261"/>
+    <mergeCell ref="A198:S198"/>
+    <mergeCell ref="L223:S223"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="L27:S27"/>
+    <mergeCell ref="E244:J244"/>
+    <mergeCell ref="L325:S325"/>
+    <mergeCell ref="L287:S287"/>
+    <mergeCell ref="L281:S281"/>
+    <mergeCell ref="L91:S91"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="L327:S327"/>
+    <mergeCell ref="E229:J229"/>
+    <mergeCell ref="A147:S147"/>
+    <mergeCell ref="L116:S116"/>
+    <mergeCell ref="L205:S205"/>
+    <mergeCell ref="L118:S118"/>
+    <mergeCell ref="L216:S216"/>
+    <mergeCell ref="L272:S272"/>
+    <mergeCell ref="L234:S234"/>
+    <mergeCell ref="L117:S117"/>
+    <mergeCell ref="L172:S172"/>
+    <mergeCell ref="L55:S55"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="L209:S209"/>
+    <mergeCell ref="L274:S274"/>
+    <mergeCell ref="A146:S146"/>
+    <mergeCell ref="L119:S119"/>
+    <mergeCell ref="A252:S252"/>
+    <mergeCell ref="L40:S40"/>
+    <mergeCell ref="L211:S211"/>
+    <mergeCell ref="L340:S340"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="L66:S66"/>
+    <mergeCell ref="L137:S137"/>
+    <mergeCell ref="L308:S308"/>
+    <mergeCell ref="A199:S199"/>
+    <mergeCell ref="L229:S229"/>
+    <mergeCell ref="L289:S289"/>
+    <mergeCell ref="L264:S264"/>
+    <mergeCell ref="L68:S68"/>
+    <mergeCell ref="L239:S239"/>
+    <mergeCell ref="L166:S166"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L132:S132"/>
+    <mergeCell ref="L224:S224"/>
+    <mergeCell ref="A346:S346"/>
+    <mergeCell ref="L161:S161"/>
+    <mergeCell ref="L255:S255"/>
+    <mergeCell ref="L144:S144"/>
+    <mergeCell ref="L242:S242"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="L219:S219"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="L283:S283"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="L277:S277"/>
+    <mergeCell ref="L43:S43"/>
+    <mergeCell ref="L214:S214"/>
+    <mergeCell ref="A295:S295"/>
+    <mergeCell ref="L74:S74"/>
+    <mergeCell ref="L310:S310"/>
+    <mergeCell ref="A296:S296"/>
+    <mergeCell ref="L138:S138"/>
+    <mergeCell ref="L76:S76"/>
+    <mergeCell ref="L168:S168"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="L69:S69"/>
+    <mergeCell ref="L311:S311"/>
+    <mergeCell ref="L167:S167"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="L232:S232"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="L182:S182"/>
+    <mergeCell ref="L169:S169"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="A302:S302"/>
+    <mergeCell ref="A298:S298"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A299:S299"/>
+    <mergeCell ref="L87:S87"/>
+    <mergeCell ref="L258:S258"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="L285:S285"/>
+    <mergeCell ref="L89:S89"/>
+    <mergeCell ref="L260:S260"/>
+    <mergeCell ref="L322:S322"/>
+    <mergeCell ref="L88:S88"/>
+    <mergeCell ref="L26:S26"/>
+    <mergeCell ref="L324:S324"/>
+    <mergeCell ref="E330:S330"/>
+    <mergeCell ref="L128:S128"/>
+    <mergeCell ref="L113:S113"/>
+    <mergeCell ref="A246:S246"/>
+    <mergeCell ref="E203:S203"/>
+    <mergeCell ref="L238:S238"/>
+    <mergeCell ref="A248:S248"/>
+    <mergeCell ref="A297:S297"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="L77:S77"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L75:S75"/>
+    <mergeCell ref="L190:S190"/>
+    <mergeCell ref="L317:S317"/>
+    <mergeCell ref="L233:S233"/>
+    <mergeCell ref="L37:S37"/>
+    <mergeCell ref="L12:S12"/>
+    <mergeCell ref="L183:S183"/>
+    <mergeCell ref="L235:S235"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L185:S185"/>
+    <mergeCell ref="A201:S201"/>
+    <mergeCell ref="L159:S159"/>
+    <mergeCell ref="L90:S90"/>
+    <mergeCell ref="L332:S332"/>
+    <mergeCell ref="L188:S188"/>
+    <mergeCell ref="L65:S65"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A348:S348"/>
+    <mergeCell ref="A249:S249"/>
+    <mergeCell ref="L279:S279"/>
+    <mergeCell ref="A347:S347"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="L343:S343"/>
+    <mergeCell ref="A349:S349"/>
+    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L318:S318"/>
+    <mergeCell ref="L256:S256"/>
+    <mergeCell ref="L109:S109"/>
+    <mergeCell ref="E53:S53"/>
+    <mergeCell ref="L84:S84"/>
+    <mergeCell ref="L122:S122"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L193:S193"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="L320:S320"/>
+    <mergeCell ref="E130:S130"/>
+    <mergeCell ref="L176:S176"/>
+    <mergeCell ref="L314:S314"/>
+    <mergeCell ref="L178:S178"/>
+    <mergeCell ref="E303:S303"/>
+    <mergeCell ref="L175:S175"/>
+    <mergeCell ref="L140:S140"/>
+    <mergeCell ref="L267:S267"/>
+    <mergeCell ref="L338:S338"/>
+    <mergeCell ref="L106:S106"/>
+    <mergeCell ref="A245:S245"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L93:S93"/>
+    <mergeCell ref="L335:S335"/>
+    <mergeCell ref="L269:S269"/>
+    <mergeCell ref="L141:S141"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L206:S206"/>
+    <mergeCell ref="L333:S333"/>
+    <mergeCell ref="L181:S181"/>
+    <mergeCell ref="L59:S59"/>
+    <mergeCell ref="L282:S282"/>
+    <mergeCell ref="L111:S111"/>
+    <mergeCell ref="L86:S86"/>
     <mergeCell ref="L61:S61"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E28:S28"/>
+    <mergeCell ref="L257:S257"/>
+    <mergeCell ref="L328:S328"/>
+    <mergeCell ref="E230:S230"/>
+    <mergeCell ref="L321:S321"/>
+    <mergeCell ref="L125:S125"/>
+    <mergeCell ref="L186:S186"/>
     <mergeCell ref="L112:S112"/>
-    <mergeCell ref="E78:S78"/>
-    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L217:S217"/>
     <mergeCell ref="A52:S52"/>
-    <mergeCell ref="L78:S78"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A102:S102"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L71:S71"/>
-    <mergeCell ref="S105"/>
-    <mergeCell ref="E178:S178"/>
-    <mergeCell ref="A148:S148"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="L323:S323"/>
+    <mergeCell ref="E304:S304"/>
     <mergeCell ref="A49:S49"/>
-    <mergeCell ref="L73:S73"/>
-    <mergeCell ref="L157:S157"/>
-    <mergeCell ref="E54:S54"/>
-    <mergeCell ref="L171:S171"/>
+    <mergeCell ref="L275:S275"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="L114:S114"/>
-    <mergeCell ref="L63:S63"/>
-    <mergeCell ref="L128:S128"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="L123:S123"/>
-    <mergeCell ref="A196:S196"/>
-    <mergeCell ref="L113:S113"/>
+    <mergeCell ref="L41:S41"/>
+    <mergeCell ref="L212:S212"/>
     <mergeCell ref="L56:S56"/>
-    <mergeCell ref="E194:J194"/>
-    <mergeCell ref="A198:S198"/>
-    <mergeCell ref="A95:S95"/>
-    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L105:S105"/>
+    <mergeCell ref="L143:S143"/>
+    <mergeCell ref="L276:S276"/>
+    <mergeCell ref="L270:S270"/>
+    <mergeCell ref="L341:S341"/>
+    <mergeCell ref="L36:S36"/>
+    <mergeCell ref="L207:S207"/>
+    <mergeCell ref="E253:S253"/>
     <mergeCell ref="E153:S153"/>
-    <mergeCell ref="L170:S170"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A97:S97"/>
-    <mergeCell ref="S55"/>
+    <mergeCell ref="E180:S180"/>
+    <mergeCell ref="L336:S336"/>
     <mergeCell ref="L67:S67"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L28:S28"/>
-    <mergeCell ref="A96:S96"/>
-    <mergeCell ref="A147:S147"/>
-    <mergeCell ref="L116:S116"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="L165:S165"/>
-    <mergeCell ref="L180:S180"/>
+    <mergeCell ref="A202:S202"/>
+    <mergeCell ref="L288:S288"/>
     <mergeCell ref="L62:S62"/>
-    <mergeCell ref="L118:S118"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="L117:S117"/>
-    <mergeCell ref="L172:S172"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="L133:S133"/>
+    <mergeCell ref="E179:J179"/>
+    <mergeCell ref="L127:S127"/>
+    <mergeCell ref="L225:S225"/>
     <mergeCell ref="L64:S64"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="L162:S162"/>
     <mergeCell ref="A197:S197"/>
     <mergeCell ref="L156:S156"/>
-    <mergeCell ref="A146:S146"/>
-    <mergeCell ref="L119:S119"/>
-    <mergeCell ref="L159:S159"/>
+    <mergeCell ref="L227:S227"/>
+    <mergeCell ref="L220:S220"/>
+    <mergeCell ref="L266:S266"/>
     <mergeCell ref="A149:S149"/>
+    <mergeCell ref="L222:S222"/>
+    <mergeCell ref="A151:S151"/>
+    <mergeCell ref="L278:S278"/>
+    <mergeCell ref="L82:S82"/>
+    <mergeCell ref="L57:S57"/>
+    <mergeCell ref="L342:S342"/>
+    <mergeCell ref="A152:S152"/>
+    <mergeCell ref="L121:S121"/>
+    <mergeCell ref="L213:S213"/>
+    <mergeCell ref="L273:S273"/>
+    <mergeCell ref="L344:S344"/>
+    <mergeCell ref="E154:S154"/>
+    <mergeCell ref="L39:S39"/>
+    <mergeCell ref="L215:S215"/>
+    <mergeCell ref="L306:S306"/>
+    <mergeCell ref="A99:S99"/>
+    <mergeCell ref="L72:S72"/>
+    <mergeCell ref="L226:S226"/>
+    <mergeCell ref="L164:S164"/>
+    <mergeCell ref="L291:S291"/>
+    <mergeCell ref="A101:S101"/>
+    <mergeCell ref="L70:S70"/>
+    <mergeCell ref="L241:S241"/>
+    <mergeCell ref="L228:S228"/>
+    <mergeCell ref="E280:S280"/>
+    <mergeCell ref="L293:S293"/>
+    <mergeCell ref="L7:S7"/>
+    <mergeCell ref="L134:S134"/>
+    <mergeCell ref="L305:S305"/>
+    <mergeCell ref="L243:S243"/>
+    <mergeCell ref="L292:S292"/>
+    <mergeCell ref="L294:S294"/>
+    <mergeCell ref="E104:S104"/>
+    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="L83:S83"/>
+    <mergeCell ref="L319:S319"/>
+    <mergeCell ref="A45:S45"/>
+    <mergeCell ref="L58:S58"/>
+    <mergeCell ref="L129:S129"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="L85:S85"/>
+    <mergeCell ref="L177:S177"/>
+    <mergeCell ref="L60:S60"/>
+    <mergeCell ref="A345:S345"/>
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="E204:S204"/>
+    <mergeCell ref="L124:S124"/>
+    <mergeCell ref="L191:S191"/>
+    <mergeCell ref="L218:S218"/>
+    <mergeCell ref="L312:S312"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="E30:S30"/>
+    <mergeCell ref="L78:S78"/>
+    <mergeCell ref="A102:S102"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L71:S71"/>
+    <mergeCell ref="L142:S142"/>
+    <mergeCell ref="L313:S313"/>
+    <mergeCell ref="A148:S148"/>
+    <mergeCell ref="L307:S307"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="L73:S73"/>
+    <mergeCell ref="L244:S244"/>
+    <mergeCell ref="E54:S54"/>
+    <mergeCell ref="L315:S315"/>
+    <mergeCell ref="L171:S171"/>
+    <mergeCell ref="L231:S231"/>
+    <mergeCell ref="L236:S236"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="E129:J129"/>
+    <mergeCell ref="E194:J194"/>
+    <mergeCell ref="L139:S139"/>
+    <mergeCell ref="L155:S155"/>
+    <mergeCell ref="A301:S301"/>
+    <mergeCell ref="A95:S95"/>
+    <mergeCell ref="L170:S170"/>
+    <mergeCell ref="L135:S135"/>
+    <mergeCell ref="L262:S262"/>
+    <mergeCell ref="A97:S97"/>
+    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="A96:S96"/>
+    <mergeCell ref="L326:S326"/>
+    <mergeCell ref="L165:S165"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="L290:S290"/>
+    <mergeCell ref="L79:S79"/>
+    <mergeCell ref="L192:S192"/>
+    <mergeCell ref="L81:S81"/>
     <mergeCell ref="L173:S173"/>
-    <mergeCell ref="L65:S65"/>
     <mergeCell ref="L194:S194"/>
-    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="L316:S316"/>
     <mergeCell ref="E4:S4"/>
     <mergeCell ref="L110:S110"/>
-    <mergeCell ref="A151:S151"/>
+    <mergeCell ref="L237:S237"/>
     <mergeCell ref="A47:S47"/>
     <mergeCell ref="L160:S160"/>
     <mergeCell ref="L16:S16"/>
-    <mergeCell ref="E128:J128"/>
-    <mergeCell ref="E128:S128"/>
-    <mergeCell ref="S5"/>
-    <mergeCell ref="L57:S57"/>
-    <mergeCell ref="L66:S66"/>
-    <mergeCell ref="A199:S199"/>
-    <mergeCell ref="A152:S152"/>
-    <mergeCell ref="L121:S121"/>
-    <mergeCell ref="L130:S130"/>
-    <mergeCell ref="L68:S68"/>
-    <mergeCell ref="L166:S166"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="E154:S154"/>
-    <mergeCell ref="L30:S30"/>
+    <mergeCell ref="L187:S187"/>
+    <mergeCell ref="L174:S174"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="L189:S189"/>
+    <mergeCell ref="L136:S136"/>
+    <mergeCell ref="L92:S92"/>
+    <mergeCell ref="L263:S263"/>
+    <mergeCell ref="L163:S163"/>
     <mergeCell ref="A98:S98"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="L163:S163"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L334:S334"/>
+    <mergeCell ref="L29:S29"/>
     <mergeCell ref="L94:S94"/>
-    <mergeCell ref="L109:S109"/>
-    <mergeCell ref="E53:S53"/>
-    <mergeCell ref="L161:S161"/>
+    <mergeCell ref="L265:S265"/>
+    <mergeCell ref="L240:S240"/>
     <mergeCell ref="L44:S44"/>
-    <mergeCell ref="L122:S122"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="L144:S144"/>
+    <mergeCell ref="L31:S31"/>
     <mergeCell ref="L158:S158"/>
-    <mergeCell ref="A99:S99"/>
+    <mergeCell ref="L329:S329"/>
+    <mergeCell ref="E344:J344"/>
     <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L72:S72"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L80:S80"/>
-    <mergeCell ref="L164:S164"/>
-    <mergeCell ref="L178:S178"/>
-    <mergeCell ref="A101:S101"/>
-    <mergeCell ref="L70:S70"/>
+    <mergeCell ref="L331:S331"/>
     <mergeCell ref="A195:S195"/>
-    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="A251:S251"/>
+    <mergeCell ref="E279:J279"/>
     <mergeCell ref="E103:S103"/>
-    <mergeCell ref="L7:S7"/>
-    <mergeCell ref="E78:J78"/>
     <mergeCell ref="L120:S120"/>
+    <mergeCell ref="A145:S145"/>
     <mergeCell ref="L107:S107"/>
-    <mergeCell ref="E178:J178"/>
-    <mergeCell ref="E104:S104"/>
-    <mergeCell ref="L106:S106"/>
-    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="L184:S184"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="L42:S42"/>
+    <mergeCell ref="L309:S309"/>
     <mergeCell ref="A48:S48"/>
-    <mergeCell ref="S155"/>
-    <mergeCell ref="A45:S45"/>
-    <mergeCell ref="L58:S58"/>
-    <mergeCell ref="L168:S168"/>
-    <mergeCell ref="L60:S60"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="L69:S69"/>
-    <mergeCell ref="L167:S167"/>
-    <mergeCell ref="A46:S46"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="L59:S59"/>
+    <mergeCell ref="L126:S126"/>
+    <mergeCell ref="L259:S259"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="E294:J294"/>
+    <mergeCell ref="L271:S271"/>
     <mergeCell ref="L115:S115"/>
-    <mergeCell ref="L169:S169"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="A145:S145"/>
-    <mergeCell ref="L111:S111"/>
-    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E254:S254"/>
     <mergeCell ref="L108:S108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
